--- a/Code/Results/Cases/Case_3_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_52/res_bus/vm_pu.xlsx
@@ -421,10 +421,10 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9949899276882981</v>
+        <v>0.994989927688299</v>
       </c>
       <c r="D2">
-        <v>1.014406544754143</v>
+        <v>1.014406544754144</v>
       </c>
       <c r="E2">
         <v>1.002052023833284</v>
@@ -433,16 +433,16 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042916688588958</v>
+        <v>1.042916688588959</v>
       </c>
       <c r="J2">
-        <v>1.017321528797121</v>
+        <v>1.017321528797122</v>
       </c>
       <c r="K2">
-        <v>1.025668756807063</v>
+        <v>1.025668756807064</v>
       </c>
       <c r="L2">
-        <v>1.013482844542245</v>
+        <v>1.013482844542246</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,10 +453,10 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.001009468728468</v>
+        <v>1.001009468728469</v>
       </c>
       <c r="D3">
-        <v>1.018983609656101</v>
+        <v>1.018983609656102</v>
       </c>
       <c r="E3">
         <v>1.006955251894637</v>
@@ -468,13 +468,13 @@
         <v>1.044907432109638</v>
       </c>
       <c r="J3">
-        <v>1.021472652385755</v>
+        <v>1.021472652385756</v>
       </c>
       <c r="K3">
-        <v>1.02937921961699</v>
+        <v>1.029379219616992</v>
       </c>
       <c r="L3">
-        <v>1.017499905812496</v>
+        <v>1.017499905812497</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -485,7 +485,7 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004800913158298</v>
+        <v>1.004800913158299</v>
       </c>
       <c r="D4">
         <v>1.021867128291548</v>
@@ -497,7 +497,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046146278771508</v>
+        <v>1.046146278771509</v>
       </c>
       <c r="J4">
         <v>1.024082603288466</v>
@@ -517,28 +517,28 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006371176304291</v>
+        <v>1.00637117630429</v>
       </c>
       <c r="D5">
-        <v>1.023061428376545</v>
+        <v>1.023061428376543</v>
       </c>
       <c r="E5">
-        <v>1.011333350575153</v>
+        <v>1.011333350575151</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046655686492213</v>
+        <v>1.046655686492212</v>
       </c>
       <c r="J5">
-        <v>1.025162366214545</v>
+        <v>1.025162366214543</v>
       </c>
       <c r="K5">
-        <v>1.0326714387279</v>
+        <v>1.032671438727899</v>
       </c>
       <c r="L5">
-        <v>1.021075670516132</v>
+        <v>1.021075670516131</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -561,7 +561,7 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046740560661364</v>
+        <v>1.046740560661365</v>
       </c>
       <c r="J6">
         <v>1.025342660372673</v>
@@ -581,10 +581,10 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004821986606687</v>
+        <v>1.004821986606686</v>
       </c>
       <c r="D7">
-        <v>1.021883156054258</v>
+        <v>1.021883156054257</v>
       </c>
       <c r="E7">
         <v>1.010067312072318</v>
@@ -596,13 +596,13 @@
         <v>1.046153129802665</v>
       </c>
       <c r="J7">
-        <v>1.024097098775104</v>
+        <v>1.024097098775103</v>
       </c>
       <c r="K7">
-        <v>1.031721538975739</v>
+        <v>1.031721538975738</v>
       </c>
       <c r="L7">
-        <v>1.020042772011723</v>
+        <v>1.020042772011722</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -613,25 +613,25 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9970464246014733</v>
+        <v>0.9970464246014743</v>
       </c>
       <c r="D8">
-        <v>1.015970051787322</v>
+        <v>1.015970051787323</v>
       </c>
       <c r="E8">
-        <v>1.003725731190772</v>
+        <v>1.003725731190773</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043599925991954</v>
+        <v>1.043599925991955</v>
       </c>
       <c r="J8">
-        <v>1.01874065209842</v>
+        <v>1.018740652098421</v>
       </c>
       <c r="K8">
-        <v>1.026937958012598</v>
+        <v>1.0269379580126</v>
       </c>
       <c r="L8">
         <v>1.014855470489384</v>
@@ -645,13 +645,13 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9824955984054971</v>
+        <v>0.9824955984054976</v>
       </c>
       <c r="D9">
-        <v>1.004913964121848</v>
+        <v>1.004913964121849</v>
       </c>
       <c r="E9">
-        <v>0.9919144547102496</v>
+        <v>0.9919144547102504</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -660,13 +660,13 @@
         <v>1.03870382337106</v>
       </c>
       <c r="J9">
-        <v>1.008681993855784</v>
+        <v>1.008681993855785</v>
       </c>
       <c r="K9">
-        <v>1.017927815634479</v>
+        <v>1.01792781563448</v>
       </c>
       <c r="L9">
-        <v>1.00514009071093</v>
+        <v>1.005140090710932</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -677,28 +677,28 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9721381086466671</v>
+        <v>0.9721381086466658</v>
       </c>
       <c r="D10">
-        <v>0.9970571620466974</v>
+        <v>0.9970571620466964</v>
       </c>
       <c r="E10">
-        <v>0.9835506032624693</v>
+        <v>0.9835506032624682</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035142883557356</v>
+        <v>1.035142883557355</v>
       </c>
       <c r="J10">
-        <v>1.001502497108552</v>
+        <v>1.001502497108551</v>
       </c>
       <c r="K10">
-        <v>1.011479754407227</v>
+        <v>1.011479754407226</v>
       </c>
       <c r="L10">
-        <v>0.9982233467809249</v>
+        <v>0.9982233467809238</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -709,13 +709,13 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9674755660786817</v>
+        <v>0.96747556607868</v>
       </c>
       <c r="D11">
-        <v>0.9935250860404131</v>
+        <v>0.9935250860404117</v>
       </c>
       <c r="E11">
-        <v>0.9797972358602777</v>
+        <v>0.9797972358602758</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -724,13 +724,13 @@
         <v>1.033522961972139</v>
       </c>
       <c r="J11">
-        <v>0.9982669142917563</v>
+        <v>0.9982669142917545</v>
       </c>
       <c r="K11">
-        <v>1.008570151571787</v>
+        <v>1.008570151571785</v>
       </c>
       <c r="L11">
-        <v>0.9951104755910986</v>
+        <v>0.995110475591097</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -741,13 +741,13 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9657149027047873</v>
+        <v>0.9657149027047877</v>
       </c>
       <c r="D12">
-        <v>0.9921921755516314</v>
+        <v>0.9921921755516315</v>
       </c>
       <c r="E12">
-        <v>0.9783817825976364</v>
+        <v>0.9783817825976368</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -756,13 +756,13 @@
         <v>1.032908805220041</v>
       </c>
       <c r="J12">
-        <v>0.9970446422348713</v>
+        <v>0.9970446422348718</v>
       </c>
       <c r="K12">
         <v>1.007470505649408</v>
       </c>
       <c r="L12">
-        <v>0.9939352134811087</v>
+        <v>0.9939352134811089</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -773,13 +773,13 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9660939097235141</v>
+        <v>0.9660939097235126</v>
       </c>
       <c r="D13">
-        <v>0.9924790611107233</v>
+        <v>0.9924790611107221</v>
       </c>
       <c r="E13">
-        <v>0.9786863909453091</v>
+        <v>0.9786863909453078</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -788,13 +788,13 @@
         <v>1.033041119599769</v>
       </c>
       <c r="J13">
-        <v>0.9973077721026307</v>
+        <v>0.9973077721026293</v>
       </c>
       <c r="K13">
-        <v>1.007707259382321</v>
+        <v>1.00770725938232</v>
       </c>
       <c r="L13">
-        <v>0.994188193376867</v>
+        <v>0.9941881933768658</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -805,28 +805,28 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9673306292468179</v>
+        <v>0.9673306292468158</v>
       </c>
       <c r="D14">
-        <v>0.99341534305557</v>
+        <v>0.9934153430555686</v>
       </c>
       <c r="E14">
-        <v>0.9796806774294107</v>
+        <v>0.9796806774294089</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033472453935698</v>
+        <v>1.033472453935697</v>
       </c>
       <c r="J14">
-        <v>0.9981663062145997</v>
+        <v>0.9981663062145977</v>
       </c>
       <c r="K14">
-        <v>1.008479647408044</v>
+        <v>1.008479647408043</v>
       </c>
       <c r="L14">
-        <v>0.9950137236767841</v>
+        <v>0.9950137236767822</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -837,13 +837,13 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9680887319563972</v>
+        <v>0.9680887319563968</v>
       </c>
       <c r="D15">
-        <v>0.9939893980081919</v>
+        <v>0.9939893980081912</v>
       </c>
       <c r="E15">
-        <v>0.9802904224538517</v>
+        <v>0.9802904224538516</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -852,13 +852,13 @@
         <v>1.03373654109681</v>
       </c>
       <c r="J15">
-        <v>0.9986925261732142</v>
+        <v>0.9986925261732139</v>
       </c>
       <c r="K15">
         <v>1.008952999130574</v>
       </c>
       <c r="L15">
-        <v>0.9955198010583933</v>
+        <v>0.995519801058393</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -869,10 +869,10 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9724436290457958</v>
+        <v>0.9724436290457962</v>
       </c>
       <c r="D16">
-        <v>0.9972887180630717</v>
+        <v>0.9972887180630716</v>
       </c>
       <c r="E16">
         <v>0.9837968020805318</v>
@@ -890,7 +890,7 @@
         <v>1.011670276448338</v>
       </c>
       <c r="L16">
-        <v>0.9984273468722075</v>
+        <v>0.9984273468722074</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -898,16 +898,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>0.9751263609234111</v>
+        <v>0.9751263609234126</v>
       </c>
       <c r="D17">
-        <v>0.9993225341991963</v>
+        <v>0.9993225341991977</v>
       </c>
       <c r="E17">
-        <v>0.9859599796284391</v>
+        <v>0.9859599796284403</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -916,13 +916,13 @@
         <v>1.036175843687926</v>
       </c>
       <c r="J17">
-        <v>1.003575133862963</v>
+        <v>1.003575133862965</v>
       </c>
       <c r="K17">
-        <v>1.013342452280856</v>
+        <v>1.013342452280858</v>
       </c>
       <c r="L17">
-        <v>1.000218742562986</v>
+        <v>1.000218742562987</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -933,28 +933,28 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9766741619515643</v>
+        <v>0.9766741619515629</v>
       </c>
       <c r="D18">
-        <v>1.000496381012353</v>
+        <v>1.000496381012351</v>
       </c>
       <c r="E18">
-        <v>0.9872091194628464</v>
+        <v>0.9872091194628448</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036709163429982</v>
+        <v>1.036709163429981</v>
       </c>
       <c r="J18">
-        <v>1.004648306634788</v>
+        <v>1.004648306634787</v>
       </c>
       <c r="K18">
-        <v>1.014306551770867</v>
+        <v>1.014306551770866</v>
       </c>
       <c r="L18">
-        <v>1.001252354243817</v>
+        <v>1.001252354243816</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -965,13 +965,13 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9771991001320673</v>
+        <v>0.9771991001320679</v>
       </c>
       <c r="D19">
         <v>1.000894562127836</v>
       </c>
       <c r="E19">
-        <v>0.9876329486151784</v>
+        <v>0.987632948615179</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -983,10 +983,10 @@
         <v>1.00501221210392</v>
       </c>
       <c r="K19">
-        <v>1.014633411483723</v>
+        <v>1.014633411483724</v>
       </c>
       <c r="L19">
-        <v>1.001602913128506</v>
+        <v>1.001602913128507</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -997,13 +997,13 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9748403010724576</v>
+        <v>0.9748403010724578</v>
       </c>
       <c r="D20">
-        <v>0.9991056217857991</v>
+        <v>0.9991056217857994</v>
       </c>
       <c r="E20">
-        <v>0.9857292052259882</v>
+        <v>0.9857292052259886</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1029,13 +1029,13 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9669672587765274</v>
+        <v>0.9669672587765278</v>
       </c>
       <c r="D21">
-        <v>0.9931402214209729</v>
+        <v>0.9931402214209731</v>
       </c>
       <c r="E21">
-        <v>0.9793884851605861</v>
+        <v>0.9793884851605864</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1044,13 +1044,13 @@
         <v>1.033345786492812</v>
       </c>
       <c r="J21">
-        <v>0.9979140651655557</v>
+        <v>0.997914065165556</v>
       </c>
       <c r="K21">
         <v>1.008252730354478</v>
       </c>
       <c r="L21">
-        <v>0.9947711612259252</v>
+        <v>0.9947711612259257</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1061,28 +1061,28 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9618494032293979</v>
+        <v>0.9618494032293999</v>
       </c>
       <c r="D22">
-        <v>0.9892675784180331</v>
+        <v>0.989267578418035</v>
       </c>
       <c r="E22">
-        <v>0.9752778171319511</v>
+        <v>0.9752778171319528</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031556048226896</v>
+        <v>1.031556048226897</v>
       </c>
       <c r="J22">
-        <v>0.9943604399532219</v>
+        <v>0.9943604399532239</v>
       </c>
       <c r="K22">
-        <v>1.005054687591742</v>
+        <v>1.005054687591744</v>
       </c>
       <c r="L22">
-        <v>0.9913554659210371</v>
+        <v>0.9913554659210386</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1093,10 +1093,10 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9645791362142279</v>
+        <v>0.9645791362142282</v>
       </c>
       <c r="D23">
-        <v>0.9913326081829853</v>
+        <v>0.9913326081829854</v>
       </c>
       <c r="E23">
         <v>0.9774692531722892</v>
@@ -1108,10 +1108,10 @@
         <v>1.032511949808223</v>
       </c>
       <c r="J23">
-        <v>0.9962560644566446</v>
+        <v>0.9962560644566445</v>
       </c>
       <c r="K23">
-        <v>1.006760901964721</v>
+        <v>1.006760901964722</v>
       </c>
       <c r="L23">
         <v>0.9931771509929898</v>
@@ -1128,7 +1128,7 @@
         <v>0.9749696115583603</v>
       </c>
       <c r="D24">
-        <v>0.9992036735195704</v>
+        <v>0.9992036735195703</v>
       </c>
       <c r="E24">
         <v>0.9858335210881869</v>
@@ -1157,13 +1157,13 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9863663329130424</v>
+        <v>0.9863663329130428</v>
       </c>
       <c r="D25">
         <v>1.007853313625889</v>
       </c>
       <c r="E25">
-        <v>0.9950493965569913</v>
+        <v>0.9950493965569914</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1178,7 +1178,7 @@
         <v>1.020330928112583</v>
       </c>
       <c r="L25">
-        <v>1.007725053494853</v>
+        <v>1.007725053494854</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_52/res_bus/vm_pu.xlsx
@@ -421,10 +421,10 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.994989927688299</v>
+        <v>0.9949899276882981</v>
       </c>
       <c r="D2">
-        <v>1.014406544754144</v>
+        <v>1.014406544754143</v>
       </c>
       <c r="E2">
         <v>1.002052023833284</v>
@@ -433,16 +433,16 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042916688588959</v>
+        <v>1.042916688588958</v>
       </c>
       <c r="J2">
-        <v>1.017321528797122</v>
+        <v>1.017321528797121</v>
       </c>
       <c r="K2">
-        <v>1.025668756807064</v>
+        <v>1.025668756807063</v>
       </c>
       <c r="L2">
-        <v>1.013482844542246</v>
+        <v>1.013482844542245</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,10 +453,10 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.001009468728469</v>
+        <v>1.001009468728468</v>
       </c>
       <c r="D3">
-        <v>1.018983609656102</v>
+        <v>1.018983609656101</v>
       </c>
       <c r="E3">
         <v>1.006955251894637</v>
@@ -468,13 +468,13 @@
         <v>1.044907432109638</v>
       </c>
       <c r="J3">
-        <v>1.021472652385756</v>
+        <v>1.021472652385755</v>
       </c>
       <c r="K3">
-        <v>1.029379219616992</v>
+        <v>1.02937921961699</v>
       </c>
       <c r="L3">
-        <v>1.017499905812497</v>
+        <v>1.017499905812496</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -485,7 +485,7 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004800913158299</v>
+        <v>1.004800913158298</v>
       </c>
       <c r="D4">
         <v>1.021867128291548</v>
@@ -497,7 +497,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046146278771509</v>
+        <v>1.046146278771508</v>
       </c>
       <c r="J4">
         <v>1.024082603288466</v>
@@ -517,28 +517,28 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00637117630429</v>
+        <v>1.006371176304291</v>
       </c>
       <c r="D5">
-        <v>1.023061428376543</v>
+        <v>1.023061428376545</v>
       </c>
       <c r="E5">
-        <v>1.011333350575151</v>
+        <v>1.011333350575153</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046655686492212</v>
+        <v>1.046655686492213</v>
       </c>
       <c r="J5">
-        <v>1.025162366214543</v>
+        <v>1.025162366214545</v>
       </c>
       <c r="K5">
-        <v>1.032671438727899</v>
+        <v>1.0326714387279</v>
       </c>
       <c r="L5">
-        <v>1.021075670516131</v>
+        <v>1.021075670516132</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -561,7 +561,7 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046740560661365</v>
+        <v>1.046740560661364</v>
       </c>
       <c r="J6">
         <v>1.025342660372673</v>
@@ -581,10 +581,10 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004821986606686</v>
+        <v>1.004821986606687</v>
       </c>
       <c r="D7">
-        <v>1.021883156054257</v>
+        <v>1.021883156054258</v>
       </c>
       <c r="E7">
         <v>1.010067312072318</v>
@@ -596,13 +596,13 @@
         <v>1.046153129802665</v>
       </c>
       <c r="J7">
-        <v>1.024097098775103</v>
+        <v>1.024097098775104</v>
       </c>
       <c r="K7">
-        <v>1.031721538975738</v>
+        <v>1.031721538975739</v>
       </c>
       <c r="L7">
-        <v>1.020042772011722</v>
+        <v>1.020042772011723</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -613,25 +613,25 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9970464246014743</v>
+        <v>0.9970464246014733</v>
       </c>
       <c r="D8">
-        <v>1.015970051787323</v>
+        <v>1.015970051787322</v>
       </c>
       <c r="E8">
-        <v>1.003725731190773</v>
+        <v>1.003725731190772</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043599925991955</v>
+        <v>1.043599925991954</v>
       </c>
       <c r="J8">
-        <v>1.018740652098421</v>
+        <v>1.01874065209842</v>
       </c>
       <c r="K8">
-        <v>1.0269379580126</v>
+        <v>1.026937958012598</v>
       </c>
       <c r="L8">
         <v>1.014855470489384</v>
@@ -645,13 +645,13 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9824955984054976</v>
+        <v>0.9824955984054971</v>
       </c>
       <c r="D9">
-        <v>1.004913964121849</v>
+        <v>1.004913964121848</v>
       </c>
       <c r="E9">
-        <v>0.9919144547102504</v>
+        <v>0.9919144547102496</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -660,13 +660,13 @@
         <v>1.03870382337106</v>
       </c>
       <c r="J9">
-        <v>1.008681993855785</v>
+        <v>1.008681993855784</v>
       </c>
       <c r="K9">
-        <v>1.01792781563448</v>
+        <v>1.017927815634479</v>
       </c>
       <c r="L9">
-        <v>1.005140090710932</v>
+        <v>1.00514009071093</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -677,28 +677,28 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9721381086466658</v>
+        <v>0.9721381086466671</v>
       </c>
       <c r="D10">
-        <v>0.9970571620466964</v>
+        <v>0.9970571620466974</v>
       </c>
       <c r="E10">
-        <v>0.9835506032624682</v>
+        <v>0.9835506032624693</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035142883557355</v>
+        <v>1.035142883557356</v>
       </c>
       <c r="J10">
-        <v>1.001502497108551</v>
+        <v>1.001502497108552</v>
       </c>
       <c r="K10">
-        <v>1.011479754407226</v>
+        <v>1.011479754407227</v>
       </c>
       <c r="L10">
-        <v>0.9982233467809238</v>
+        <v>0.9982233467809249</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -709,13 +709,13 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.96747556607868</v>
+        <v>0.9674755660786817</v>
       </c>
       <c r="D11">
-        <v>0.9935250860404117</v>
+        <v>0.9935250860404131</v>
       </c>
       <c r="E11">
-        <v>0.9797972358602758</v>
+        <v>0.9797972358602777</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -724,13 +724,13 @@
         <v>1.033522961972139</v>
       </c>
       <c r="J11">
-        <v>0.9982669142917545</v>
+        <v>0.9982669142917563</v>
       </c>
       <c r="K11">
-        <v>1.008570151571785</v>
+        <v>1.008570151571787</v>
       </c>
       <c r="L11">
-        <v>0.995110475591097</v>
+        <v>0.9951104755910986</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -741,13 +741,13 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9657149027047877</v>
+        <v>0.9657149027047873</v>
       </c>
       <c r="D12">
-        <v>0.9921921755516315</v>
+        <v>0.9921921755516314</v>
       </c>
       <c r="E12">
-        <v>0.9783817825976368</v>
+        <v>0.9783817825976364</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -756,13 +756,13 @@
         <v>1.032908805220041</v>
       </c>
       <c r="J12">
-        <v>0.9970446422348718</v>
+        <v>0.9970446422348713</v>
       </c>
       <c r="K12">
         <v>1.007470505649408</v>
       </c>
       <c r="L12">
-        <v>0.9939352134811089</v>
+        <v>0.9939352134811087</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -773,13 +773,13 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9660939097235126</v>
+        <v>0.9660939097235141</v>
       </c>
       <c r="D13">
-        <v>0.9924790611107221</v>
+        <v>0.9924790611107233</v>
       </c>
       <c r="E13">
-        <v>0.9786863909453078</v>
+        <v>0.9786863909453091</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -788,13 +788,13 @@
         <v>1.033041119599769</v>
       </c>
       <c r="J13">
-        <v>0.9973077721026293</v>
+        <v>0.9973077721026307</v>
       </c>
       <c r="K13">
-        <v>1.00770725938232</v>
+        <v>1.007707259382321</v>
       </c>
       <c r="L13">
-        <v>0.9941881933768658</v>
+        <v>0.994188193376867</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -805,28 +805,28 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9673306292468158</v>
+        <v>0.9673306292468179</v>
       </c>
       <c r="D14">
-        <v>0.9934153430555686</v>
+        <v>0.99341534305557</v>
       </c>
       <c r="E14">
-        <v>0.9796806774294089</v>
+        <v>0.9796806774294107</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033472453935697</v>
+        <v>1.033472453935698</v>
       </c>
       <c r="J14">
-        <v>0.9981663062145977</v>
+        <v>0.9981663062145997</v>
       </c>
       <c r="K14">
-        <v>1.008479647408043</v>
+        <v>1.008479647408044</v>
       </c>
       <c r="L14">
-        <v>0.9950137236767822</v>
+        <v>0.9950137236767841</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -837,13 +837,13 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9680887319563968</v>
+        <v>0.9680887319563972</v>
       </c>
       <c r="D15">
-        <v>0.9939893980081912</v>
+        <v>0.9939893980081919</v>
       </c>
       <c r="E15">
-        <v>0.9802904224538516</v>
+        <v>0.9802904224538517</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -852,13 +852,13 @@
         <v>1.03373654109681</v>
       </c>
       <c r="J15">
-        <v>0.9986925261732139</v>
+        <v>0.9986925261732142</v>
       </c>
       <c r="K15">
         <v>1.008952999130574</v>
       </c>
       <c r="L15">
-        <v>0.995519801058393</v>
+        <v>0.9955198010583933</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -869,10 +869,10 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9724436290457962</v>
+        <v>0.9724436290457958</v>
       </c>
       <c r="D16">
-        <v>0.9972887180630716</v>
+        <v>0.9972887180630717</v>
       </c>
       <c r="E16">
         <v>0.9837968020805318</v>
@@ -890,7 +890,7 @@
         <v>1.011670276448338</v>
       </c>
       <c r="L16">
-        <v>0.9984273468722074</v>
+        <v>0.9984273468722075</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -898,16 +898,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9751263609234126</v>
+        <v>0.9751263609234111</v>
       </c>
       <c r="D17">
-        <v>0.9993225341991977</v>
+        <v>0.9993225341991963</v>
       </c>
       <c r="E17">
-        <v>0.9859599796284403</v>
+        <v>0.9859599796284391</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -916,13 +916,13 @@
         <v>1.036175843687926</v>
       </c>
       <c r="J17">
-        <v>1.003575133862965</v>
+        <v>1.003575133862963</v>
       </c>
       <c r="K17">
-        <v>1.013342452280858</v>
+        <v>1.013342452280856</v>
       </c>
       <c r="L17">
-        <v>1.000218742562987</v>
+        <v>1.000218742562986</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -933,28 +933,28 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9766741619515629</v>
+        <v>0.9766741619515643</v>
       </c>
       <c r="D18">
-        <v>1.000496381012351</v>
+        <v>1.000496381012353</v>
       </c>
       <c r="E18">
-        <v>0.9872091194628448</v>
+        <v>0.9872091194628464</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036709163429981</v>
+        <v>1.036709163429982</v>
       </c>
       <c r="J18">
-        <v>1.004648306634787</v>
+        <v>1.004648306634788</v>
       </c>
       <c r="K18">
-        <v>1.014306551770866</v>
+        <v>1.014306551770867</v>
       </c>
       <c r="L18">
-        <v>1.001252354243816</v>
+        <v>1.001252354243817</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -965,13 +965,13 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9771991001320679</v>
+        <v>0.9771991001320673</v>
       </c>
       <c r="D19">
         <v>1.000894562127836</v>
       </c>
       <c r="E19">
-        <v>0.987632948615179</v>
+        <v>0.9876329486151784</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -983,10 +983,10 @@
         <v>1.00501221210392</v>
       </c>
       <c r="K19">
-        <v>1.014633411483724</v>
+        <v>1.014633411483723</v>
       </c>
       <c r="L19">
-        <v>1.001602913128507</v>
+        <v>1.001602913128506</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -997,13 +997,13 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9748403010724578</v>
+        <v>0.9748403010724576</v>
       </c>
       <c r="D20">
-        <v>0.9991056217857994</v>
+        <v>0.9991056217857991</v>
       </c>
       <c r="E20">
-        <v>0.9857292052259886</v>
+        <v>0.9857292052259882</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1029,13 +1029,13 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9669672587765278</v>
+        <v>0.9669672587765274</v>
       </c>
       <c r="D21">
-        <v>0.9931402214209731</v>
+        <v>0.9931402214209729</v>
       </c>
       <c r="E21">
-        <v>0.9793884851605864</v>
+        <v>0.9793884851605861</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1044,13 +1044,13 @@
         <v>1.033345786492812</v>
       </c>
       <c r="J21">
-        <v>0.997914065165556</v>
+        <v>0.9979140651655557</v>
       </c>
       <c r="K21">
         <v>1.008252730354478</v>
       </c>
       <c r="L21">
-        <v>0.9947711612259257</v>
+        <v>0.9947711612259252</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1061,28 +1061,28 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9618494032293999</v>
+        <v>0.9618494032293979</v>
       </c>
       <c r="D22">
-        <v>0.989267578418035</v>
+        <v>0.9892675784180331</v>
       </c>
       <c r="E22">
-        <v>0.9752778171319528</v>
+        <v>0.9752778171319511</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031556048226897</v>
+        <v>1.031556048226896</v>
       </c>
       <c r="J22">
-        <v>0.9943604399532239</v>
+        <v>0.9943604399532219</v>
       </c>
       <c r="K22">
-        <v>1.005054687591744</v>
+        <v>1.005054687591742</v>
       </c>
       <c r="L22">
-        <v>0.9913554659210386</v>
+        <v>0.9913554659210371</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1093,10 +1093,10 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9645791362142282</v>
+        <v>0.9645791362142279</v>
       </c>
       <c r="D23">
-        <v>0.9913326081829854</v>
+        <v>0.9913326081829853</v>
       </c>
       <c r="E23">
         <v>0.9774692531722892</v>
@@ -1108,10 +1108,10 @@
         <v>1.032511949808223</v>
       </c>
       <c r="J23">
-        <v>0.9962560644566445</v>
+        <v>0.9962560644566446</v>
       </c>
       <c r="K23">
-        <v>1.006760901964722</v>
+        <v>1.006760901964721</v>
       </c>
       <c r="L23">
         <v>0.9931771509929898</v>
@@ -1128,7 +1128,7 @@
         <v>0.9749696115583603</v>
       </c>
       <c r="D24">
-        <v>0.9992036735195703</v>
+        <v>0.9992036735195704</v>
       </c>
       <c r="E24">
         <v>0.9858335210881869</v>
@@ -1157,13 +1157,13 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9863663329130428</v>
+        <v>0.9863663329130424</v>
       </c>
       <c r="D25">
         <v>1.007853313625889</v>
       </c>
       <c r="E25">
-        <v>0.9950493965569914</v>
+        <v>0.9950493965569913</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1178,7 +1178,7 @@
         <v>1.020330928112583</v>
       </c>
       <c r="L25">
-        <v>1.007725053494854</v>
+        <v>1.007725053494853</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_52/res_bus/vm_pu.xlsx
@@ -421,28 +421,31 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9949899276882981</v>
+        <v>0.9949904796945298</v>
       </c>
       <c r="D2">
-        <v>1.014406544754143</v>
+        <v>1.014406994137884</v>
       </c>
       <c r="E2">
-        <v>1.002052023833284</v>
+        <v>1.002052923288877</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042916688588958</v>
+        <v>1.042916940311386</v>
       </c>
       <c r="J2">
-        <v>1.017321528797121</v>
+        <v>1.017322064063082</v>
       </c>
       <c r="K2">
-        <v>1.025668756807063</v>
+        <v>1.025669200151714</v>
       </c>
       <c r="L2">
-        <v>1.013482844542245</v>
+        <v>1.013483731531654</v>
+      </c>
+      <c r="N2">
+        <v>1.014030927899023</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,28 +456,31 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.001009468728468</v>
+        <v>1.001007251929704</v>
       </c>
       <c r="D3">
-        <v>1.018983609656101</v>
+        <v>1.018981802229044</v>
       </c>
       <c r="E3">
-        <v>1.006955251894637</v>
+        <v>1.006953714623875</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044907432109638</v>
+        <v>1.044906418409659</v>
       </c>
       <c r="J3">
-        <v>1.021472652385755</v>
+        <v>1.021470495853535</v>
       </c>
       <c r="K3">
-        <v>1.02937921961699</v>
+        <v>1.029377434257208</v>
       </c>
       <c r="L3">
-        <v>1.017499905812496</v>
+        <v>1.017498387873934</v>
+      </c>
+      <c r="N3">
+        <v>1.016846479799132</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -485,28 +491,31 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004800913158298</v>
+        <v>1.004796976891326</v>
       </c>
       <c r="D4">
-        <v>1.021867128291548</v>
+        <v>1.021863915940109</v>
       </c>
       <c r="E4">
-        <v>1.010050096201546</v>
+        <v>1.010047042854773</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046146278771508</v>
+        <v>1.04614447566587</v>
       </c>
       <c r="J4">
-        <v>1.024082603288466</v>
+        <v>1.024078766417216</v>
       </c>
       <c r="K4">
-        <v>1.031708609846463</v>
+        <v>1.031705434243919</v>
       </c>
       <c r="L4">
-        <v>1.020028720006345</v>
+        <v>1.020025702608417</v>
+      </c>
+      <c r="N4">
+        <v>1.018616241053172</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -517,28 +526,31 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006371176304291</v>
+        <v>1.006366533151918</v>
       </c>
       <c r="D5">
-        <v>1.023061428376545</v>
+        <v>1.023057637706163</v>
       </c>
       <c r="E5">
-        <v>1.011333350575153</v>
+        <v>1.011329673373362</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046655686492213</v>
+        <v>1.046653558056424</v>
       </c>
       <c r="J5">
-        <v>1.025162366214545</v>
+        <v>1.025157836631789</v>
       </c>
       <c r="K5">
-        <v>1.0326714387279</v>
+        <v>1.032667690218761</v>
       </c>
       <c r="L5">
-        <v>1.021075670516132</v>
+        <v>1.021072035392239</v>
+      </c>
+      <c r="N5">
+        <v>1.019348290988104</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -549,28 +561,31 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006633474696589</v>
+        <v>1.006628713756824</v>
       </c>
       <c r="D6">
-        <v>1.023260926762136</v>
+        <v>1.023257039685439</v>
       </c>
       <c r="E6">
-        <v>1.011547792708892</v>
+        <v>1.011544011523106</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046740560661364</v>
+        <v>1.046738377970665</v>
       </c>
       <c r="J6">
-        <v>1.025342660372673</v>
+        <v>1.025338015256622</v>
       </c>
       <c r="K6">
-        <v>1.032832156310164</v>
+        <v>1.032828312261072</v>
       </c>
       <c r="L6">
-        <v>1.02125053014348</v>
+        <v>1.021246792016939</v>
+      </c>
+      <c r="N6">
+        <v>1.01947051843931</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -581,28 +596,31 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004821986606687</v>
+        <v>1.004818040833103</v>
       </c>
       <c r="D7">
-        <v>1.021883156054258</v>
+        <v>1.021879935928107</v>
       </c>
       <c r="E7">
-        <v>1.010067312072318</v>
+        <v>1.010064250337779</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046153129802665</v>
+        <v>1.046151322324901</v>
       </c>
       <c r="J7">
-        <v>1.024097098775104</v>
+        <v>1.024093252595225</v>
       </c>
       <c r="K7">
-        <v>1.031721538975739</v>
+        <v>1.031718355673689</v>
       </c>
       <c r="L7">
-        <v>1.020042772011723</v>
+        <v>1.020039746311177</v>
+      </c>
+      <c r="N7">
+        <v>1.018626069073335</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -613,28 +631,31 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9970464246014733</v>
+        <v>0.9970460251245533</v>
       </c>
       <c r="D8">
-        <v>1.015970051787322</v>
+        <v>1.015969726405187</v>
       </c>
       <c r="E8">
-        <v>1.003725731190772</v>
+        <v>1.003725793943499</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043599925991954</v>
+        <v>1.043599743651615</v>
       </c>
       <c r="J8">
-        <v>1.01874065209842</v>
+        <v>1.018740264303887</v>
       </c>
       <c r="K8">
-        <v>1.026937958012598</v>
+        <v>1.026937636866128</v>
       </c>
       <c r="L8">
-        <v>1.014855470489384</v>
+        <v>1.014855532399996</v>
+      </c>
+      <c r="N8">
+        <v>1.014993562250269</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -645,28 +666,31 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9824955984054971</v>
+        <v>0.9825020657107502</v>
       </c>
       <c r="D9">
-        <v>1.004913964121848</v>
+        <v>1.004919211510638</v>
       </c>
       <c r="E9">
-        <v>0.9919144547102496</v>
+        <v>0.9919205388620276</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03870382337106</v>
+        <v>1.038706755300018</v>
       </c>
       <c r="J9">
-        <v>1.008681993855784</v>
+        <v>1.008688221184309</v>
       </c>
       <c r="K9">
-        <v>1.017927815634479</v>
+        <v>1.017932978952994</v>
       </c>
       <c r="L9">
-        <v>1.00514009071093</v>
+        <v>1.005146074069986</v>
+      </c>
+      <c r="N9">
+        <v>1.008168662960283</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -677,28 +701,31 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9721381086466671</v>
+        <v>0.9721496739861232</v>
       </c>
       <c r="D10">
-        <v>0.9970571620466974</v>
+        <v>0.9970665179297969</v>
       </c>
       <c r="E10">
-        <v>0.9835506032624693</v>
+        <v>0.9835611299751114</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035142883557356</v>
+        <v>1.035148100497335</v>
       </c>
       <c r="J10">
-        <v>1.001502497108552</v>
+        <v>1.001513565214557</v>
       </c>
       <c r="K10">
-        <v>1.011479754407227</v>
+        <v>1.011488940069023</v>
       </c>
       <c r="L10">
-        <v>0.9982233467809249</v>
+        <v>0.9982336750359854</v>
+      </c>
+      <c r="N10">
+        <v>1.003295254228268</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -709,28 +736,31 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9674755660786817</v>
+        <v>0.9674894905063909</v>
       </c>
       <c r="D11">
-        <v>0.9935250860404131</v>
+        <v>0.9935363345159253</v>
       </c>
       <c r="E11">
-        <v>0.9797972358602777</v>
+        <v>0.9798098095993479</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033522961972139</v>
+        <v>1.033529228621945</v>
       </c>
       <c r="J11">
-        <v>0.9982669142917563</v>
+        <v>0.9982802020583398</v>
       </c>
       <c r="K11">
-        <v>1.008570151571787</v>
+        <v>1.008581184285543</v>
       </c>
       <c r="L11">
-        <v>0.9951104755910986</v>
+        <v>0.9951227991814106</v>
+      </c>
+      <c r="N11">
+        <v>1.001098558773988</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -741,28 +771,31 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9657149027047873</v>
+        <v>0.9657297290204224</v>
       </c>
       <c r="D12">
-        <v>0.9921921755516314</v>
+        <v>0.9922041461129584</v>
       </c>
       <c r="E12">
-        <v>0.9783817825976364</v>
+        <v>0.9783951374043339</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032908805220041</v>
+        <v>1.032915471908448</v>
       </c>
       <c r="J12">
-        <v>0.9970446422348713</v>
+        <v>0.9970587751832402</v>
       </c>
       <c r="K12">
-        <v>1.007470505649408</v>
+        <v>1.007482242117115</v>
       </c>
       <c r="L12">
-        <v>0.9939352134811087</v>
+        <v>0.9939482973192572</v>
+      </c>
+      <c r="N12">
+        <v>1.000268684806632</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -773,28 +806,31 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9660939097235141</v>
+        <v>0.9661085413716249</v>
       </c>
       <c r="D13">
-        <v>0.9924790611107233</v>
+        <v>0.9924908758824734</v>
       </c>
       <c r="E13">
-        <v>0.9786863909453091</v>
+        <v>0.9786995772347827</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033041119599769</v>
+        <v>1.033047700001264</v>
       </c>
       <c r="J13">
-        <v>0.9973077721026307</v>
+        <v>0.9973217227822637</v>
       </c>
       <c r="K13">
-        <v>1.007707259382321</v>
+        <v>1.007718844059949</v>
       </c>
       <c r="L13">
-        <v>0.994188193376867</v>
+        <v>0.9942011132406602</v>
+      </c>
+      <c r="N13">
+        <v>1.00044734167522</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -805,28 +841,31 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9673306292468179</v>
+        <v>0.9673446276843345</v>
       </c>
       <c r="D14">
-        <v>0.99341534305557</v>
+        <v>0.9934266508166752</v>
       </c>
       <c r="E14">
-        <v>0.9796806774294107</v>
+        <v>0.979693315295583</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033472453935698</v>
+        <v>1.033478753439433</v>
       </c>
       <c r="J14">
-        <v>0.9981663062145997</v>
+        <v>0.9981796634084481</v>
       </c>
       <c r="K14">
-        <v>1.008479647408044</v>
+        <v>1.008490737922096</v>
       </c>
       <c r="L14">
-        <v>0.9950137236767841</v>
+        <v>0.9950261097075729</v>
+      </c>
+      <c r="N14">
+        <v>1.001030250897951</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -837,28 +876,31 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9680887319563972</v>
+        <v>0.9681023437387</v>
       </c>
       <c r="D15">
-        <v>0.9939893980081919</v>
+        <v>0.9940003959788436</v>
       </c>
       <c r="E15">
-        <v>0.9802904224538517</v>
+        <v>0.9803027252330997</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03373654109681</v>
+        <v>1.0337426689071</v>
       </c>
       <c r="J15">
-        <v>0.9986925261732142</v>
+        <v>0.998705520512988</v>
       </c>
       <c r="K15">
-        <v>1.008952999130574</v>
+        <v>1.008963787576217</v>
       </c>
       <c r="L15">
-        <v>0.9955198010583933</v>
+        <v>0.9955318607705056</v>
+      </c>
+      <c r="N15">
+        <v>1.001387526011522</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -869,31 +911,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9724436290457958</v>
+        <v>0.9724550412475387</v>
       </c>
       <c r="D16">
-        <v>0.9972887180630717</v>
+        <v>0.9972979509008262</v>
       </c>
       <c r="E16">
-        <v>0.9837968020805318</v>
+        <v>0.9838071957168359</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035248688572981</v>
+        <v>1.03525383720548</v>
       </c>
       <c r="J16">
-        <v>1.001714445682015</v>
+        <v>1.001725369255558</v>
       </c>
       <c r="K16">
-        <v>1.011670276448338</v>
+        <v>1.011679341898982</v>
       </c>
       <c r="L16">
-        <v>0.9984273468722075</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.998437545266471</v>
+      </c>
+      <c r="N16">
+        <v>1.003439142377098</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -901,31 +946,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9751263609234111</v>
+        <v>0.975136435853457</v>
       </c>
       <c r="D17">
-        <v>0.9993225341991963</v>
+        <v>0.9993306915704364</v>
       </c>
       <c r="E17">
-        <v>0.9859599796284391</v>
+        <v>0.9859692101816389</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036175843687926</v>
+        <v>1.036180394959464</v>
       </c>
       <c r="J17">
-        <v>1.003575133862963</v>
+        <v>1.003584793000025</v>
       </c>
       <c r="K17">
-        <v>1.013342452280856</v>
+        <v>1.013350466373916</v>
       </c>
       <c r="L17">
-        <v>1.000218742562986</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>1.000227805220018</v>
+      </c>
+      <c r="N17">
+        <v>1.004702286800035</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -933,31 +981,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9766741619515643</v>
+        <v>0.976683471288717</v>
       </c>
       <c r="D18">
-        <v>1.000496381012353</v>
+        <v>1.000503921890458</v>
       </c>
       <c r="E18">
-        <v>0.9872091194628464</v>
+        <v>0.9872176833502565</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036709163429982</v>
+        <v>1.036713372007665</v>
       </c>
       <c r="J18">
-        <v>1.004648306634788</v>
+        <v>1.004657240011174</v>
       </c>
       <c r="K18">
-        <v>1.014306551770867</v>
+        <v>1.014313962651836</v>
       </c>
       <c r="L18">
-        <v>1.001252354243817</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>1.001260765293868</v>
+      </c>
+      <c r="N18">
+        <v>1.005430781548833</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -965,31 +1016,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9771991001320673</v>
+        <v>0.9772081507872723</v>
       </c>
       <c r="D19">
-        <v>1.000894562127836</v>
+        <v>1.000901894573973</v>
       </c>
       <c r="E19">
-        <v>0.9876329486151784</v>
+        <v>0.9876412871170549</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036889764766845</v>
+        <v>1.036893857437643</v>
       </c>
       <c r="J19">
-        <v>1.00501221210392</v>
+        <v>1.005020899949904</v>
       </c>
       <c r="K19">
-        <v>1.014633411483723</v>
+        <v>1.014640618333694</v>
       </c>
       <c r="L19">
-        <v>1.001602913128506</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>1.001611103782242</v>
+      </c>
+      <c r="N19">
+        <v>1.005677802410243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -997,31 +1051,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9748403010724576</v>
+        <v>0.9748505179688809</v>
       </c>
       <c r="D20">
-        <v>0.9991056217857991</v>
+        <v>0.9991138934127199</v>
       </c>
       <c r="E20">
-        <v>0.9857292052259882</v>
+        <v>0.9857385593378273</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036077146810873</v>
+        <v>1.036081761572941</v>
       </c>
       <c r="J20">
-        <v>1.003376764348134</v>
+        <v>1.003386557915997</v>
       </c>
       <c r="K20">
-        <v>1.013164216008114</v>
+        <v>1.013172341852212</v>
       </c>
       <c r="L20">
-        <v>1.000027718336577</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>1.00003690171191</v>
+      </c>
+      <c r="N20">
+        <v>1.004567625809633</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1029,31 +1086,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9669672587765274</v>
+        <v>0.9669814429466711</v>
       </c>
       <c r="D21">
-        <v>0.9931402214209729</v>
+        <v>0.9931516779392839</v>
       </c>
       <c r="E21">
-        <v>0.9793884851605861</v>
+        <v>0.9794012839329889</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033345786492812</v>
+        <v>1.03335216842493</v>
       </c>
       <c r="J21">
-        <v>0.9979140651655557</v>
+        <v>0.9979275965360541</v>
       </c>
       <c r="K21">
-        <v>1.008252730354478</v>
+        <v>1.008263965883258</v>
       </c>
       <c r="L21">
-        <v>0.9947711612259252</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.9947837039129911</v>
+      </c>
+      <c r="N21">
+        <v>1.000858990983541</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1061,31 +1121,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9618494032293979</v>
+        <v>0.9618662317305083</v>
       </c>
       <c r="D22">
-        <v>0.9892675784180331</v>
+        <v>0.9892811490956737</v>
       </c>
       <c r="E22">
-        <v>0.9752778171319511</v>
+        <v>0.9752929028431729</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031556048226896</v>
+        <v>1.031563600504008</v>
       </c>
       <c r="J22">
-        <v>0.9943604399532219</v>
+        <v>0.9943764424886454</v>
       </c>
       <c r="K22">
-        <v>1.005054687591742</v>
+        <v>1.005067981691632</v>
       </c>
       <c r="L22">
-        <v>0.9913554659210371</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.9913702323883419</v>
+      </c>
+      <c r="N22">
+        <v>0.9984461332853793</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1093,31 +1156,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9645791362142279</v>
+        <v>0.9645945476279608</v>
       </c>
       <c r="D23">
-        <v>0.9913326081829853</v>
+        <v>0.991345046761716</v>
       </c>
       <c r="E23">
-        <v>0.9774692531722892</v>
+        <v>0.9774831142394361</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032511949808223</v>
+        <v>1.032518875647081</v>
       </c>
       <c r="J23">
-        <v>0.9962560644566446</v>
+        <v>0.9962707447101578</v>
       </c>
       <c r="K23">
-        <v>1.006760901964721</v>
+        <v>1.006773094288201</v>
       </c>
       <c r="L23">
-        <v>0.9931771509929898</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.9931907272757338</v>
+      </c>
+      <c r="N23">
+        <v>0.999733258525671</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1125,31 +1191,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9749696115583603</v>
+        <v>0.9749797642619542</v>
       </c>
       <c r="D24">
-        <v>0.9992036735195704</v>
+        <v>0.999211893486018</v>
       </c>
       <c r="E24">
-        <v>0.9858335210881869</v>
+        <v>0.9858428193330755</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036121766724816</v>
+        <v>1.036126352780599</v>
       </c>
       <c r="J24">
-        <v>1.003466436392305</v>
+        <v>1.003476169180481</v>
       </c>
       <c r="K24">
-        <v>1.013244787989918</v>
+        <v>1.013252863307684</v>
       </c>
       <c r="L24">
-        <v>1.000114068722113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>1.000123197516662</v>
+      </c>
+      <c r="N24">
+        <v>1.004628498821254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1157,28 +1226,31 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9863663329130424</v>
+        <v>0.986370941824888</v>
       </c>
       <c r="D25">
-        <v>1.007853313625889</v>
+        <v>1.007857057150392</v>
       </c>
       <c r="E25">
-        <v>0.9950493965569913</v>
+        <v>0.9950538551467026</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040019545238726</v>
+        <v>1.040021638509732</v>
       </c>
       <c r="J25">
-        <v>1.011361399879379</v>
+        <v>1.011365847626681</v>
       </c>
       <c r="K25">
-        <v>1.020330928112583</v>
+        <v>1.020334614672812</v>
       </c>
       <c r="L25">
-        <v>1.007725053494853</v>
+        <v>1.007729441987077</v>
+      </c>
+      <c r="N25">
+        <v>1.009987043642496</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_52/res_bus/vm_pu.xlsx
@@ -421,31 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9949904796945298</v>
+        <v>1.008933293238821</v>
       </c>
       <c r="D2">
-        <v>1.014406994137884</v>
+        <v>1.026272611623622</v>
       </c>
       <c r="E2">
-        <v>1.002052923288877</v>
+        <v>1.020605917277576</v>
+      </c>
+      <c r="F2">
+        <v>1.028679859189181</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042916940311386</v>
+        <v>1.050946534631265</v>
       </c>
       <c r="J2">
-        <v>1.017322064063082</v>
+        <v>1.030850054991379</v>
       </c>
       <c r="K2">
-        <v>1.025669200151714</v>
+        <v>1.03737767026672</v>
       </c>
       <c r="L2">
-        <v>1.013483731531654</v>
+        <v>1.03178545333093</v>
+      </c>
+      <c r="M2">
+        <v>1.03975359023326</v>
       </c>
       <c r="N2">
-        <v>1.014030927899023</v>
+        <v>1.03231398030962</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,31 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.001007251929704</v>
+        <v>1.018231126365667</v>
       </c>
       <c r="D3">
-        <v>1.018981802229044</v>
+        <v>1.033520117443629</v>
       </c>
       <c r="E3">
-        <v>1.006953714623875</v>
+        <v>1.028872627105625</v>
+      </c>
+      <c r="F3">
+        <v>1.037370759050755</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044906418409659</v>
+        <v>1.054373499148893</v>
       </c>
       <c r="J3">
-        <v>1.021470495853535</v>
+        <v>1.038236836469138</v>
       </c>
       <c r="K3">
-        <v>1.029377434257208</v>
+        <v>1.043741340397533</v>
       </c>
       <c r="L3">
-        <v>1.017498387873934</v>
+        <v>1.039148939208953</v>
+      </c>
+      <c r="M3">
+        <v>1.047546800896187</v>
       </c>
       <c r="N3">
-        <v>1.016846479799132</v>
+        <v>1.039711251864354</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -491,31 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004796976891326</v>
+        <v>1.024026460813256</v>
       </c>
       <c r="D4">
-        <v>1.021863915940109</v>
+        <v>1.038039496753318</v>
       </c>
       <c r="E4">
-        <v>1.010047042854773</v>
+        <v>1.034027603753723</v>
+      </c>
+      <c r="F4">
+        <v>1.042794383650452</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04614447566587</v>
+        <v>1.056493487115911</v>
       </c>
       <c r="J4">
-        <v>1.024078766417216</v>
+        <v>1.04283491476742</v>
       </c>
       <c r="K4">
-        <v>1.031705434243919</v>
+        <v>1.0476995124164</v>
       </c>
       <c r="L4">
-        <v>1.020025702608417</v>
+        <v>1.043731984561873</v>
+      </c>
+      <c r="M4">
+        <v>1.052402360417627</v>
       </c>
       <c r="N4">
-        <v>1.018616241053172</v>
+        <v>1.044315859961226</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -526,31 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006366533151918</v>
+        <v>1.026413575740898</v>
       </c>
       <c r="D5">
-        <v>1.023057637706163</v>
+        <v>1.039901376044726</v>
       </c>
       <c r="E5">
-        <v>1.011329673373362</v>
+        <v>1.036151412747625</v>
+      </c>
+      <c r="F5">
+        <v>1.045029856316758</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046653558056424</v>
+        <v>1.057362791365653</v>
       </c>
       <c r="J5">
-        <v>1.025157836631789</v>
+        <v>1.044727337363093</v>
       </c>
       <c r="K5">
-        <v>1.032667690218761</v>
+        <v>1.049327803479315</v>
       </c>
       <c r="L5">
-        <v>1.021072035392239</v>
+        <v>1.045618087706444</v>
+      </c>
+      <c r="M5">
+        <v>1.054401812962929</v>
       </c>
       <c r="N5">
-        <v>1.019348290988104</v>
+        <v>1.046210970014049</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -561,31 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006628713756824</v>
+        <v>1.026811594305775</v>
       </c>
       <c r="D6">
-        <v>1.023257039685439</v>
+        <v>1.040211834352084</v>
       </c>
       <c r="E6">
-        <v>1.011544011523106</v>
+        <v>1.036505552906731</v>
+      </c>
+      <c r="F6">
+        <v>1.045402673736378</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046738377970665</v>
+        <v>1.057507502825998</v>
       </c>
       <c r="J6">
-        <v>1.025338015256622</v>
+        <v>1.045042780157694</v>
       </c>
       <c r="K6">
-        <v>1.032828312261072</v>
+        <v>1.049599172809161</v>
       </c>
       <c r="L6">
-        <v>1.021246792016939</v>
+        <v>1.045932469223017</v>
+      </c>
+      <c r="M6">
+        <v>1.054735158112549</v>
       </c>
       <c r="N6">
-        <v>1.01947051843931</v>
+        <v>1.0465268607736</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -596,31 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004818040833103</v>
+        <v>1.02405854650802</v>
       </c>
       <c r="D7">
-        <v>1.021879935928107</v>
+        <v>1.038064521513525</v>
       </c>
       <c r="E7">
-        <v>1.010064250337779</v>
+        <v>1.034056148607624</v>
+      </c>
+      <c r="F7">
+        <v>1.042824425423937</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046151322324901</v>
+        <v>1.056505187265591</v>
       </c>
       <c r="J7">
-        <v>1.024093252595225</v>
+        <v>1.042860357398415</v>
       </c>
       <c r="K7">
-        <v>1.031718355673689</v>
+        <v>1.04772140702194</v>
       </c>
       <c r="L7">
-        <v>1.020039746311177</v>
+        <v>1.043757342761479</v>
+      </c>
+      <c r="M7">
+        <v>1.052429237833963</v>
       </c>
       <c r="N7">
-        <v>1.018626069073335</v>
+        <v>1.044341338723676</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -631,31 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9970460251245533</v>
+        <v>1.012123630695966</v>
       </c>
       <c r="D8">
-        <v>1.015969726405187</v>
+        <v>1.028758902820336</v>
       </c>
       <c r="E8">
-        <v>1.003725793943499</v>
+        <v>1.023441885107554</v>
+      </c>
+      <c r="F8">
+        <v>1.031660467939359</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043599743651615</v>
+        <v>1.052125770930163</v>
       </c>
       <c r="J8">
-        <v>1.018740264303887</v>
+        <v>1.033385903479748</v>
       </c>
       <c r="K8">
-        <v>1.026937636866128</v>
+        <v>1.039562913208168</v>
       </c>
       <c r="L8">
-        <v>1.014855532399996</v>
+        <v>1.034313414213452</v>
+      </c>
+      <c r="M8">
+        <v>1.042427998499081</v>
       </c>
       <c r="N8">
-        <v>1.014993562250269</v>
+        <v>1.034853429993709</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -666,31 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9825020657107502</v>
+        <v>0.9892111611603879</v>
       </c>
       <c r="D9">
-        <v>1.004919211510638</v>
+        <v>1.010918812115548</v>
       </c>
       <c r="E9">
-        <v>0.9919205388620276</v>
+        <v>1.003089755090392</v>
+      </c>
+      <c r="F9">
+        <v>1.010288863597419</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038706755300018</v>
+        <v>1.043589861832986</v>
       </c>
       <c r="J9">
-        <v>1.008688221184309</v>
+        <v>1.015150739220308</v>
       </c>
       <c r="K9">
-        <v>1.017932978952994</v>
+        <v>1.023837188760342</v>
       </c>
       <c r="L9">
-        <v>1.005146074069986</v>
+        <v>1.016132901291954</v>
+      </c>
+      <c r="M9">
+        <v>1.023217187965104</v>
       </c>
       <c r="N9">
-        <v>1.008168662960283</v>
+        <v>1.016592369709418</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -701,31 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9721496739861232</v>
+        <v>0.9723582839056408</v>
       </c>
       <c r="D10">
-        <v>0.9970665179297969</v>
+        <v>0.9978272112354383</v>
       </c>
       <c r="E10">
-        <v>0.9835611299751114</v>
+        <v>0.9881468031021674</v>
+      </c>
+      <c r="F10">
+        <v>0.9946218985561782</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035148100497335</v>
+        <v>1.037229695346337</v>
       </c>
       <c r="J10">
-        <v>1.001513565214557</v>
+        <v>1.00171320917764</v>
       </c>
       <c r="K10">
-        <v>1.011488940069023</v>
+        <v>1.012235807185546</v>
       </c>
       <c r="L10">
-        <v>0.9982336750359854</v>
+        <v>1.002733420209833</v>
+      </c>
+      <c r="M10">
+        <v>1.00908894000281</v>
       </c>
       <c r="N10">
-        <v>1.003295254228268</v>
+        <v>1.003135756832783</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -736,31 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9674894905063909</v>
+        <v>0.964598409778573</v>
       </c>
       <c r="D11">
-        <v>0.9935363345159253</v>
+        <v>0.9918101215713057</v>
       </c>
       <c r="E11">
-        <v>0.9798098095993479</v>
+        <v>0.9812753946304843</v>
+      </c>
+      <c r="F11">
+        <v>0.9874236096289025</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033529228621945</v>
+        <v>1.034283461811362</v>
       </c>
       <c r="J11">
-        <v>0.9982802020583398</v>
+        <v>0.9955218755545581</v>
       </c>
       <c r="K11">
-        <v>1.008581184285543</v>
+        <v>1.00688815755087</v>
       </c>
       <c r="L11">
-        <v>0.9951227991814106</v>
+        <v>0.9965592847833379</v>
+      </c>
+      <c r="M11">
+        <v>1.00258666042185</v>
       </c>
       <c r="N11">
-        <v>1.001098558773988</v>
+        <v>0.9969356308058007</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -771,31 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9657297290204224</v>
+        <v>0.9616372704102234</v>
       </c>
       <c r="D12">
-        <v>0.9922041461129584</v>
+        <v>0.9895160378475425</v>
       </c>
       <c r="E12">
-        <v>0.9783951374043339</v>
+        <v>0.9786549287270807</v>
+      </c>
+      <c r="F12">
+        <v>0.9846794163832835</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032915471908448</v>
+        <v>1.033156707634832</v>
       </c>
       <c r="J12">
-        <v>0.9970587751832402</v>
+        <v>0.9931588733805866</v>
       </c>
       <c r="K12">
-        <v>1.007482242117115</v>
+        <v>1.004846888579443</v>
       </c>
       <c r="L12">
-        <v>0.9939482973192572</v>
+        <v>0.9942028194235619</v>
+      </c>
+      <c r="M12">
+        <v>1.000106140800935</v>
       </c>
       <c r="N12">
-        <v>1.000268684806632</v>
+        <v>0.9945692728977021</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -806,31 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9661085413716249</v>
+        <v>0.962276178874361</v>
       </c>
       <c r="D13">
-        <v>0.9924908758824734</v>
+        <v>0.9900109219138729</v>
       </c>
       <c r="E13">
-        <v>0.9786995772347827</v>
+        <v>0.9792202531261364</v>
+      </c>
+      <c r="F13">
+        <v>0.9852713906600801</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033047700001264</v>
+        <v>1.033399929786818</v>
       </c>
       <c r="J13">
-        <v>0.9973217227822637</v>
+        <v>0.9936687401808315</v>
       </c>
       <c r="K13">
-        <v>1.007718844059949</v>
+        <v>1.005287345519915</v>
       </c>
       <c r="L13">
-        <v>0.9942011132406602</v>
+        <v>0.9947112765575239</v>
+      </c>
+      <c r="M13">
+        <v>1.000641311062374</v>
       </c>
       <c r="N13">
-        <v>1.00044734167522</v>
+        <v>0.9950798637672855</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -841,31 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9673446276843345</v>
+        <v>0.964355308349835</v>
       </c>
       <c r="D14">
-        <v>0.9934266508166752</v>
+        <v>0.9916217404501755</v>
       </c>
       <c r="E14">
-        <v>0.979693315295583</v>
+        <v>0.9810602266508964</v>
+      </c>
+      <c r="F14">
+        <v>0.9871982633563416</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033478753439433</v>
+        <v>1.034191007451345</v>
       </c>
       <c r="J14">
-        <v>0.9981796634084481</v>
+        <v>0.9953278866335209</v>
       </c>
       <c r="K14">
-        <v>1.008490737922096</v>
+        <v>1.006720586037824</v>
       </c>
       <c r="L14">
-        <v>0.9950261097075729</v>
+        <v>0.9963658328917873</v>
+      </c>
+      <c r="M14">
+        <v>1.002383000155408</v>
       </c>
       <c r="N14">
-        <v>1.001030250897951</v>
+        <v>0.9967413663982448</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -876,31 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9681023437387</v>
+        <v>0.9656255811198895</v>
       </c>
       <c r="D15">
-        <v>0.9940003959788436</v>
+        <v>0.9926061683689618</v>
       </c>
       <c r="E15">
-        <v>0.9803027252330997</v>
+        <v>0.982184607494281</v>
+      </c>
+      <c r="F15">
+        <v>0.9883758697011624</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.0337426689071</v>
+        <v>1.034674007862478</v>
       </c>
       <c r="J15">
-        <v>0.998705520512988</v>
+        <v>0.9963415174156915</v>
       </c>
       <c r="K15">
-        <v>1.008963787576217</v>
+        <v>1.007596170174405</v>
       </c>
       <c r="L15">
-        <v>0.9955318607705056</v>
+        <v>0.9973766566421166</v>
+      </c>
+      <c r="M15">
+        <v>1.003447212986572</v>
       </c>
       <c r="N15">
-        <v>1.001387526011522</v>
+        <v>0.9977564366523912</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -911,31 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9724550412475387</v>
+        <v>0.9728627838532523</v>
       </c>
       <c r="D16">
-        <v>0.9972979509008262</v>
+        <v>0.9982186600470608</v>
       </c>
       <c r="E16">
-        <v>0.9838071957168359</v>
+        <v>0.9885937483742393</v>
+      </c>
+      <c r="F16">
+        <v>0.9950902316411667</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03525383720548</v>
+        <v>1.037420892058585</v>
       </c>
       <c r="J16">
-        <v>1.001725369255558</v>
+        <v>1.002115664560092</v>
       </c>
       <c r="K16">
-        <v>1.011679341898982</v>
+        <v>1.012583379231486</v>
       </c>
       <c r="L16">
-        <v>0.998437545266471</v>
+        <v>1.003134752597777</v>
+      </c>
+      <c r="M16">
+        <v>1.009511762670293</v>
       </c>
       <c r="N16">
-        <v>1.003439142377098</v>
+        <v>1.00353878374804</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,31 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.975136435853457</v>
+        <v>0.9772726461033674</v>
       </c>
       <c r="D17">
-        <v>0.9993306915704364</v>
+        <v>1.001641593803667</v>
       </c>
       <c r="E17">
-        <v>0.9859692101816389</v>
+        <v>0.9925015607001844</v>
+      </c>
+      <c r="F17">
+        <v>0.9991857248524526</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036180394959464</v>
+        <v>1.039090192401923</v>
       </c>
       <c r="J17">
-        <v>1.003584793000025</v>
+        <v>1.005633116689459</v>
       </c>
       <c r="K17">
-        <v>1.013350466373916</v>
+        <v>1.015620901026997</v>
       </c>
       <c r="L17">
-        <v>1.000227805220018</v>
+        <v>1.006642354636187</v>
+      </c>
+      <c r="M17">
+        <v>1.013208046340728</v>
       </c>
       <c r="N17">
-        <v>1.004702286800035</v>
+        <v>1.007061231062889</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -981,31 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.976683471288717</v>
+        <v>0.9798009353738052</v>
       </c>
       <c r="D18">
-        <v>1.000503921890458</v>
+        <v>1.003605038684809</v>
       </c>
       <c r="E18">
-        <v>0.9872176833502565</v>
+        <v>0.9947428322159426</v>
+      </c>
+      <c r="F18">
+        <v>1.001535199575445</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036713372007665</v>
+        <v>1.040045587291228</v>
       </c>
       <c r="J18">
-        <v>1.004657240011174</v>
+        <v>1.007649373417099</v>
       </c>
       <c r="K18">
-        <v>1.014313962651836</v>
+        <v>1.017361833266466</v>
       </c>
       <c r="L18">
-        <v>1.001260765293868</v>
+        <v>1.008652932477472</v>
+      </c>
+      <c r="M18">
+        <v>1.015327485988419</v>
       </c>
       <c r="N18">
-        <v>1.005430781548833</v>
+        <v>1.00908035110635</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1016,31 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9772081507872723</v>
+        <v>0.9806558233244003</v>
       </c>
       <c r="D19">
-        <v>1.000901894573973</v>
+        <v>1.004269093836309</v>
       </c>
       <c r="E19">
-        <v>0.9876412871170549</v>
+        <v>0.9955008029399104</v>
+      </c>
+      <c r="F19">
+        <v>1.00232985795414</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036893857437643</v>
+        <v>1.040368347905784</v>
       </c>
       <c r="J19">
-        <v>1.005020899949904</v>
+        <v>1.008331056864745</v>
       </c>
       <c r="K19">
-        <v>1.014640618333694</v>
+        <v>1.017950391630845</v>
       </c>
       <c r="L19">
-        <v>1.001611103782242</v>
+        <v>1.009332689812631</v>
+      </c>
+      <c r="M19">
+        <v>1.016044167624373</v>
       </c>
       <c r="N19">
-        <v>1.005677802410243</v>
+        <v>1.009763002622682</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1051,31 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9748505179688809</v>
+        <v>0.9768041128817573</v>
       </c>
       <c r="D20">
-        <v>0.9991138934127199</v>
+        <v>1.001277813195884</v>
       </c>
       <c r="E20">
-        <v>0.9857385593378273</v>
+        <v>0.9920862813746166</v>
+      </c>
+      <c r="F20">
+        <v>0.9987504422738729</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036081761572941</v>
+        <v>1.038913006319994</v>
       </c>
       <c r="J20">
-        <v>1.003386557915997</v>
+        <v>1.005259438470574</v>
       </c>
       <c r="K20">
-        <v>1.013172341852212</v>
+        <v>1.015298230950977</v>
       </c>
       <c r="L20">
-        <v>1.00003690171191</v>
+        <v>1.006269726106105</v>
+      </c>
+      <c r="M20">
+        <v>1.012815299291156</v>
       </c>
       <c r="N20">
-        <v>1.004567625809633</v>
+        <v>1.006687022178071</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1086,31 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9669814429466711</v>
+        <v>0.9637453149405877</v>
       </c>
       <c r="D21">
-        <v>0.9931516779392839</v>
+        <v>0.991149085706878</v>
       </c>
       <c r="E21">
-        <v>0.9794012839329889</v>
+        <v>0.9805203515563006</v>
+      </c>
+      <c r="F21">
+        <v>0.9866328650651364</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03335216842493</v>
+        <v>1.033958980542739</v>
       </c>
       <c r="J21">
-        <v>0.9979275965360541</v>
+        <v>0.9948411211133181</v>
       </c>
       <c r="K21">
-        <v>1.008263965883258</v>
+        <v>1.006300104200533</v>
       </c>
       <c r="L21">
-        <v>0.9947837039129911</v>
+        <v>0.9958804145636908</v>
+      </c>
+      <c r="M21">
+        <v>1.001871985700372</v>
       </c>
       <c r="N21">
-        <v>1.000858990983541</v>
+        <v>0.9962539096151704</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1121,31 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9618662317305083</v>
+        <v>0.9550729154784164</v>
       </c>
       <c r="D22">
-        <v>0.9892811490956737</v>
+        <v>0.9844346440236607</v>
       </c>
       <c r="E22">
-        <v>0.9752929028431729</v>
+        <v>0.9728491828284486</v>
+      </c>
+      <c r="F22">
+        <v>0.9786012988091402</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031563600504008</v>
+        <v>1.030654509042796</v>
       </c>
       <c r="J22">
-        <v>0.9943764424886454</v>
+        <v>0.9879199776995817</v>
       </c>
       <c r="K22">
-        <v>1.005067981691632</v>
+        <v>1.000320891214645</v>
       </c>
       <c r="L22">
-        <v>0.9913702323883419</v>
+        <v>0.9889783974351763</v>
+      </c>
+      <c r="M22">
+        <v>0.9946089304947842</v>
       </c>
       <c r="N22">
-        <v>0.9984461332853793</v>
+        <v>0.9893229373839207</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1156,31 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9645945476279608</v>
+        <v>0.9597177011024756</v>
       </c>
       <c r="D23">
-        <v>0.991345046761716</v>
+        <v>0.98802951094978</v>
       </c>
       <c r="E23">
-        <v>0.9774831142394361</v>
+        <v>0.9769567038556409</v>
+      </c>
+      <c r="F23">
+        <v>0.9829012741233462</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032518875647081</v>
+        <v>1.032425610014571</v>
       </c>
       <c r="J23">
-        <v>0.9962707447101578</v>
+        <v>0.9916269602168664</v>
       </c>
       <c r="K23">
-        <v>1.006773094288201</v>
+        <v>1.003523487072197</v>
       </c>
       <c r="L23">
-        <v>0.9931907272757338</v>
+        <v>0.9926751398144912</v>
+      </c>
+      <c r="M23">
+        <v>0.9984983779453396</v>
       </c>
       <c r="N23">
-        <v>0.999733258525671</v>
+        <v>0.9930351842415766</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1191,31 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9749797642619542</v>
+        <v>0.9770159578822512</v>
       </c>
       <c r="D24">
-        <v>0.999211893486018</v>
+        <v>1.001442291768697</v>
       </c>
       <c r="E24">
-        <v>0.9858428193330755</v>
+        <v>0.9922740453528686</v>
+      </c>
+      <c r="F24">
+        <v>0.9989472487572088</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036126352780599</v>
+        <v>1.038993125314272</v>
       </c>
       <c r="J24">
-        <v>1.003476169180481</v>
+        <v>1.005428396475938</v>
       </c>
       <c r="K24">
-        <v>1.013252863307684</v>
+        <v>1.015444126400801</v>
       </c>
       <c r="L24">
-        <v>1.000123197516662</v>
+        <v>1.006438209599665</v>
+      </c>
+      <c r="M24">
+        <v>1.012992877144063</v>
       </c>
       <c r="N24">
-        <v>1.004628498821254</v>
+        <v>1.006856220123183</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1226,31 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.986370941824888</v>
+        <v>0.9953867765394536</v>
       </c>
       <c r="D25">
-        <v>1.007857057150392</v>
+        <v>1.015723203438273</v>
       </c>
       <c r="E25">
-        <v>0.9950538551467026</v>
+        <v>1.008571543611395</v>
+      </c>
+      <c r="F25">
+        <v>1.016041188647523</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040021638509732</v>
+        <v>1.045904767376775</v>
       </c>
       <c r="J25">
-        <v>1.011365847626681</v>
+        <v>1.020070397740921</v>
       </c>
       <c r="K25">
-        <v>1.020334614672812</v>
+        <v>1.0280822434784</v>
       </c>
       <c r="L25">
-        <v>1.007729441987077</v>
+        <v>1.021038238840453</v>
+      </c>
+      <c r="M25">
+        <v>1.028395486756837</v>
       </c>
       <c r="N25">
-        <v>1.009987043642496</v>
+        <v>1.021519014709423</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_52/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.008933293238821</v>
+        <v>1.026298646918087</v>
       </c>
       <c r="D2">
-        <v>1.026272611623622</v>
+        <v>1.04325607464542</v>
       </c>
       <c r="E2">
-        <v>1.020605917277576</v>
+        <v>1.038575414773567</v>
       </c>
       <c r="F2">
-        <v>1.028679859189181</v>
+        <v>1.04835519485994</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050946534631265</v>
+        <v>1.054366580824043</v>
       </c>
       <c r="J2">
-        <v>1.030850054991379</v>
+        <v>1.04772024707166</v>
       </c>
       <c r="K2">
-        <v>1.03737767026672</v>
+        <v>1.054143964192667</v>
       </c>
       <c r="L2">
-        <v>1.03178545333093</v>
+        <v>1.049522271196915</v>
       </c>
       <c r="M2">
-        <v>1.03975359023326</v>
+        <v>1.059179592008933</v>
       </c>
       <c r="N2">
-        <v>1.03231398030962</v>
+        <v>1.019278987930558</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018231126365667</v>
+        <v>1.031083069152915</v>
       </c>
       <c r="D3">
-        <v>1.033520117443629</v>
+        <v>1.047004734919378</v>
       </c>
       <c r="E3">
-        <v>1.028872627105625</v>
+        <v>1.042596546944649</v>
       </c>
       <c r="F3">
-        <v>1.037370759050755</v>
+        <v>1.052699727394154</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054373499148893</v>
+        <v>1.055910851937813</v>
       </c>
       <c r="J3">
-        <v>1.038236836469138</v>
+        <v>1.05076080832647</v>
       </c>
       <c r="K3">
-        <v>1.043741340397533</v>
+        <v>1.057069534214193</v>
       </c>
       <c r="L3">
-        <v>1.039148939208953</v>
+        <v>1.052711932006605</v>
       </c>
       <c r="M3">
-        <v>1.047546800896187</v>
+        <v>1.062699947139337</v>
       </c>
       <c r="N3">
-        <v>1.039711251864354</v>
+        <v>1.020326066118379</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024026460813256</v>
+        <v>1.034115595179874</v>
       </c>
       <c r="D4">
-        <v>1.038039496753318</v>
+        <v>1.049383786401758</v>
       </c>
       <c r="E4">
-        <v>1.034027603753723</v>
+        <v>1.045150888819924</v>
       </c>
       <c r="F4">
-        <v>1.042794383650452</v>
+        <v>1.055459717391518</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056493487115911</v>
+        <v>1.056881138011121</v>
       </c>
       <c r="J4">
-        <v>1.04283491476742</v>
+        <v>1.052685125063465</v>
       </c>
       <c r="K4">
-        <v>1.0476995124164</v>
+        <v>1.058920602102954</v>
       </c>
       <c r="L4">
-        <v>1.043731984561873</v>
+        <v>1.054733290535502</v>
       </c>
       <c r="M4">
-        <v>1.052402360417627</v>
+        <v>1.064931880511993</v>
       </c>
       <c r="N4">
-        <v>1.044315859961226</v>
+        <v>1.02098831214611</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.026413575740898</v>
+        <v>1.035375864802645</v>
       </c>
       <c r="D5">
-        <v>1.039901376044726</v>
+        <v>1.050373159223592</v>
       </c>
       <c r="E5">
-        <v>1.036151412747625</v>
+        <v>1.046213736952827</v>
       </c>
       <c r="F5">
-        <v>1.045029856316758</v>
+        <v>1.056608190129504</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057362791365653</v>
+        <v>1.057282293162701</v>
       </c>
       <c r="J5">
-        <v>1.044727337363093</v>
+        <v>1.05348411190073</v>
       </c>
       <c r="K5">
-        <v>1.049327803479315</v>
+        <v>1.059689054596657</v>
       </c>
       <c r="L5">
-        <v>1.045618087706444</v>
+        <v>1.055573212095279</v>
       </c>
       <c r="M5">
-        <v>1.054401812962929</v>
+        <v>1.065859542678013</v>
       </c>
       <c r="N5">
-        <v>1.046210970014049</v>
+        <v>1.021263170759589</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.026811594305775</v>
+        <v>1.035586628783244</v>
       </c>
       <c r="D6">
-        <v>1.040211834352084</v>
+        <v>1.050538657569686</v>
       </c>
       <c r="E6">
-        <v>1.036505552906731</v>
+        <v>1.046391560169478</v>
       </c>
       <c r="F6">
-        <v>1.045402673736378</v>
+        <v>1.056800342423083</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057507502825998</v>
+        <v>1.057349257939231</v>
       </c>
       <c r="J6">
-        <v>1.045042780157694</v>
+        <v>1.053617688413211</v>
       </c>
       <c r="K6">
-        <v>1.049599172809161</v>
+        <v>1.059817518974634</v>
       </c>
       <c r="L6">
-        <v>1.045932469223017</v>
+        <v>1.055713669935131</v>
       </c>
       <c r="M6">
-        <v>1.054735158112549</v>
+        <v>1.066014687375077</v>
       </c>
       <c r="N6">
-        <v>1.0465268607736</v>
+        <v>1.021309115654657</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02405854650802</v>
+        <v>1.034132491636665</v>
       </c>
       <c r="D7">
-        <v>1.038064521513525</v>
+        <v>1.04939704833025</v>
       </c>
       <c r="E7">
-        <v>1.034056148607624</v>
+        <v>1.045165133346462</v>
       </c>
       <c r="F7">
-        <v>1.042824425423937</v>
+        <v>1.055475109253618</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056505187265591</v>
+        <v>1.056886524568706</v>
       </c>
       <c r="J7">
-        <v>1.042860357398415</v>
+        <v>1.05269584001715</v>
       </c>
       <c r="K7">
-        <v>1.04772140702194</v>
+        <v>1.058930908058506</v>
       </c>
       <c r="L7">
-        <v>1.043757342761479</v>
+        <v>1.054744551913025</v>
       </c>
       <c r="M7">
-        <v>1.052429237833963</v>
+        <v>1.064944317329189</v>
       </c>
       <c r="N7">
-        <v>1.044341338723676</v>
+        <v>1.020991998626989</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.012123630695966</v>
+        <v>1.027929016947627</v>
       </c>
       <c r="D8">
-        <v>1.028758902820336</v>
+        <v>1.044532826673144</v>
       </c>
       <c r="E8">
-        <v>1.023441885107554</v>
+        <v>1.03994447706711</v>
       </c>
       <c r="F8">
-        <v>1.031660467939359</v>
+        <v>1.049834321783832</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052125770930163</v>
+        <v>1.054894582363428</v>
       </c>
       <c r="J8">
-        <v>1.033385903479748</v>
+        <v>1.048756952953051</v>
       </c>
       <c r="K8">
-        <v>1.039562913208168</v>
+        <v>1.055141557413518</v>
       </c>
       <c r="L8">
-        <v>1.034313414213452</v>
+        <v>1.050609251048712</v>
       </c>
       <c r="M8">
-        <v>1.042427998499081</v>
+        <v>1.060379055691905</v>
       </c>
       <c r="N8">
-        <v>1.034853429993709</v>
+        <v>1.019636085068078</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9892111611603879</v>
+        <v>1.016486408847465</v>
       </c>
       <c r="D9">
-        <v>1.010918812115548</v>
+        <v>1.035587023590293</v>
       </c>
       <c r="E9">
-        <v>1.003089755090392</v>
+        <v>1.030361532019181</v>
       </c>
       <c r="F9">
-        <v>1.010288863597419</v>
+        <v>1.03948170364213</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043589861832986</v>
+        <v>1.051154140887824</v>
       </c>
       <c r="J9">
-        <v>1.015150739220308</v>
+        <v>1.041470126723266</v>
       </c>
       <c r="K9">
-        <v>1.023837188760342</v>
+        <v>1.048127955843562</v>
       </c>
       <c r="L9">
-        <v>1.016132901291954</v>
+        <v>1.042980497965651</v>
       </c>
       <c r="M9">
-        <v>1.023217187965104</v>
+        <v>1.051965123541164</v>
       </c>
       <c r="N9">
-        <v>1.016592369709418</v>
+        <v>1.017124532139569</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9723582839056408</v>
+        <v>1.008474879646474</v>
       </c>
       <c r="D10">
-        <v>0.9978272112354383</v>
+        <v>1.029345145865441</v>
       </c>
       <c r="E10">
-        <v>0.9881468031021674</v>
+        <v>1.023686917710422</v>
       </c>
       <c r="F10">
-        <v>0.9946218985561782</v>
+        <v>1.032271754899638</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037229695346337</v>
+        <v>1.048492819103869</v>
       </c>
       <c r="J10">
-        <v>1.00171320917764</v>
+        <v>1.036356240658402</v>
       </c>
       <c r="K10">
-        <v>1.012235807185546</v>
+        <v>1.043204035436951</v>
       </c>
       <c r="L10">
-        <v>1.002733420209833</v>
+        <v>1.037641274231847</v>
       </c>
       <c r="M10">
-        <v>1.00908894000281</v>
+        <v>1.046081794918265</v>
       </c>
       <c r="N10">
-        <v>1.003135756832783</v>
+        <v>1.015360200964856</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.964598409778573</v>
+        <v>1.004905356730134</v>
       </c>
       <c r="D11">
-        <v>0.9918101215713057</v>
+        <v>1.026570044467716</v>
       </c>
       <c r="E11">
-        <v>0.9812753946304843</v>
+        <v>1.020722088847152</v>
       </c>
       <c r="F11">
-        <v>0.9874236096289025</v>
+        <v>1.029069248522336</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034283461811362</v>
+        <v>1.047297555913633</v>
       </c>
       <c r="J11">
-        <v>0.9955218755545581</v>
+        <v>1.034075481457753</v>
       </c>
       <c r="K11">
-        <v>1.00688815755087</v>
+        <v>1.041007700889558</v>
       </c>
       <c r="L11">
-        <v>0.9965592847833379</v>
+        <v>1.035263518978813</v>
       </c>
       <c r="M11">
-        <v>1.00258666042185</v>
+        <v>1.043463021844216</v>
       </c>
       <c r="N11">
-        <v>0.9969356308058007</v>
+        <v>1.014573003910693</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9616372704102234</v>
+        <v>1.003563497111695</v>
       </c>
       <c r="D12">
-        <v>0.9895160378475425</v>
+        <v>1.025527796483846</v>
       </c>
       <c r="E12">
-        <v>0.9786549287270807</v>
+        <v>1.019608972639915</v>
       </c>
       <c r="F12">
-        <v>0.9846794163832835</v>
+        <v>1.027866910406206</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033156707634832</v>
+        <v>1.046846851079051</v>
       </c>
       <c r="J12">
-        <v>0.9931588733805866</v>
+        <v>1.033217805296735</v>
       </c>
       <c r="K12">
-        <v>1.004846888579443</v>
+        <v>1.040181738728397</v>
       </c>
       <c r="L12">
-        <v>0.9942028194235619</v>
+        <v>1.034369897304865</v>
       </c>
       <c r="M12">
-        <v>1.000106140800935</v>
+        <v>1.042479014268864</v>
       </c>
       <c r="N12">
-        <v>0.9945692728977021</v>
+        <v>1.014276939991573</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.962276178874361</v>
+        <v>1.003852068593196</v>
       </c>
       <c r="D13">
-        <v>0.9900109219138729</v>
+        <v>1.025751890285391</v>
       </c>
       <c r="E13">
-        <v>0.9792202531261364</v>
+        <v>1.019848286497805</v>
       </c>
       <c r="F13">
-        <v>0.9852713906600801</v>
+        <v>1.028125406040415</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033399929786818</v>
+        <v>1.046943838210685</v>
       </c>
       <c r="J13">
-        <v>0.9936687401808315</v>
+        <v>1.033402263730401</v>
       </c>
       <c r="K13">
-        <v>1.005287345519915</v>
+        <v>1.040359377846308</v>
       </c>
       <c r="L13">
-        <v>0.9947112765575239</v>
+        <v>1.034562062466365</v>
       </c>
       <c r="M13">
-        <v>1.000641311062374</v>
+        <v>1.04269060727746</v>
       </c>
       <c r="N13">
-        <v>0.9950798637672855</v>
+        <v>1.014340615434709</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.964355308349835</v>
+        <v>1.004794769523532</v>
       </c>
       <c r="D14">
-        <v>0.9916217404501755</v>
+        <v>1.026484129067677</v>
       </c>
       <c r="E14">
-        <v>0.9810602266508964</v>
+        <v>1.020630323768936</v>
       </c>
       <c r="F14">
-        <v>0.9871982633563416</v>
+        <v>1.028970127800121</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034191007451345</v>
+        <v>1.047260439549091</v>
       </c>
       <c r="J14">
-        <v>0.9953278866335209</v>
+        <v>1.034004803044925</v>
       </c>
       <c r="K14">
-        <v>1.006720586037824</v>
+        <v>1.040939636548551</v>
       </c>
       <c r="L14">
-        <v>0.9963658328917873</v>
+        <v>1.035189867622633</v>
       </c>
       <c r="M14">
-        <v>1.002383000155408</v>
+        <v>1.043381917013527</v>
       </c>
       <c r="N14">
-        <v>0.9967413663982448</v>
+        <v>1.014548606966294</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9656255811198895</v>
+        <v>1.005373453643103</v>
       </c>
       <c r="D15">
-        <v>0.9926061683689618</v>
+        <v>1.026933749871884</v>
       </c>
       <c r="E15">
-        <v>0.982184607494281</v>
+        <v>1.021110573418037</v>
       </c>
       <c r="F15">
-        <v>0.9883758697011624</v>
+        <v>1.029488873428781</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034674007862478</v>
+        <v>1.047454607257477</v>
       </c>
       <c r="J15">
-        <v>0.9963415174156915</v>
+        <v>1.03437463969214</v>
       </c>
       <c r="K15">
-        <v>1.007596170174405</v>
+        <v>1.041295793318095</v>
       </c>
       <c r="L15">
-        <v>0.9973766566421166</v>
+        <v>1.03557528230214</v>
       </c>
       <c r="M15">
-        <v>1.003447212986572</v>
+        <v>1.043806343379559</v>
       </c>
       <c r="N15">
-        <v>0.9977564366523912</v>
+        <v>1.014676266502687</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9728627838532523</v>
+        <v>1.008709586164265</v>
       </c>
       <c r="D16">
-        <v>0.9982186600470608</v>
+        <v>1.029527747312648</v>
       </c>
       <c r="E16">
-        <v>0.9885937483742393</v>
+        <v>1.023882057724295</v>
       </c>
       <c r="F16">
-        <v>0.9950902316411667</v>
+        <v>1.032482540387008</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037420892058585</v>
+        <v>1.048571217068584</v>
       </c>
       <c r="J16">
-        <v>1.002115664560092</v>
+        <v>1.036506164107471</v>
       </c>
       <c r="K16">
-        <v>1.012583379231486</v>
+        <v>1.043348404019836</v>
       </c>
       <c r="L16">
-        <v>1.003134752597777</v>
+        <v>1.03779764683915</v>
       </c>
       <c r="M16">
-        <v>1.009511762670293</v>
+        <v>1.046254044990313</v>
       </c>
       <c r="N16">
-        <v>1.00353878374804</v>
+        <v>1.015411940654104</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9772726461033674</v>
+        <v>1.010774748966148</v>
       </c>
       <c r="D17">
-        <v>1.001641593803667</v>
+        <v>1.031135128727065</v>
       </c>
       <c r="E17">
-        <v>0.9925015607001844</v>
+        <v>1.025600114177934</v>
       </c>
       <c r="F17">
-        <v>0.9991857248524526</v>
+        <v>1.034338355578103</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039090192401923</v>
+        <v>1.04925995711116</v>
       </c>
       <c r="J17">
-        <v>1.005633116689459</v>
+        <v>1.037825074881744</v>
       </c>
       <c r="K17">
-        <v>1.015620901026997</v>
+        <v>1.044618414687303</v>
       </c>
       <c r="L17">
-        <v>1.006642354636187</v>
+        <v>1.039173691122068</v>
       </c>
       <c r="M17">
-        <v>1.013208046340728</v>
+        <v>1.04776995460166</v>
       </c>
       <c r="N17">
-        <v>1.007061231062889</v>
+        <v>1.015867071399952</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9798009353738052</v>
+        <v>1.011969691874957</v>
       </c>
       <c r="D18">
-        <v>1.003605038684809</v>
+        <v>1.032065750236365</v>
       </c>
       <c r="E18">
-        <v>0.9947428322159426</v>
+        <v>1.026595066845489</v>
       </c>
       <c r="F18">
-        <v>1.001535199575445</v>
+        <v>1.035413097753188</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040045587291228</v>
+        <v>1.049657569355808</v>
       </c>
       <c r="J18">
-        <v>1.007649373417099</v>
+        <v>1.038588002585805</v>
       </c>
       <c r="K18">
-        <v>1.017361833266466</v>
+        <v>1.045353026903888</v>
       </c>
       <c r="L18">
-        <v>1.008652932477472</v>
+        <v>1.039969999705551</v>
       </c>
       <c r="M18">
-        <v>1.015327485988419</v>
+        <v>1.048647324981894</v>
       </c>
       <c r="N18">
-        <v>1.00908035110635</v>
+        <v>1.016130312485203</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9806558233244003</v>
+        <v>1.012375528640509</v>
       </c>
       <c r="D19">
-        <v>1.004269093836309</v>
+        <v>1.032381908620625</v>
       </c>
       <c r="E19">
-        <v>0.9955008029399104</v>
+        <v>1.026933123771801</v>
       </c>
       <c r="F19">
-        <v>1.00232985795414</v>
+        <v>1.035778266991816</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040368347905784</v>
+        <v>1.049792454716147</v>
       </c>
       <c r="J19">
-        <v>1.008331056864745</v>
+        <v>1.038847075919958</v>
       </c>
       <c r="K19">
-        <v>1.017950391630845</v>
+        <v>1.045602479671047</v>
       </c>
       <c r="L19">
-        <v>1.009332689812631</v>
+        <v>1.040240464640507</v>
       </c>
       <c r="M19">
-        <v>1.016044167624373</v>
+        <v>1.04894534320099</v>
       </c>
       <c r="N19">
-        <v>1.009763002622682</v>
+        <v>1.016219697896537</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9768041128817573</v>
+        <v>1.010554178969223</v>
       </c>
       <c r="D20">
-        <v>1.001277813195884</v>
+        <v>1.030963393527692</v>
       </c>
       <c r="E20">
-        <v>0.9920862813746166</v>
+        <v>1.025416528028453</v>
       </c>
       <c r="F20">
-        <v>0.9987504422738729</v>
+        <v>1.034140047824115</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038913006319994</v>
+        <v>1.049186489791129</v>
       </c>
       <c r="J20">
-        <v>1.005259438470574</v>
+        <v>1.037684230842797</v>
       </c>
       <c r="K20">
-        <v>1.015298230950977</v>
+        <v>1.044482795540523</v>
       </c>
       <c r="L20">
-        <v>1.006269726106105</v>
+        <v>1.039026711444851</v>
       </c>
       <c r="M20">
-        <v>1.012815299291156</v>
+        <v>1.047608022742208</v>
       </c>
       <c r="N20">
-        <v>1.006687022178071</v>
+        <v>1.015818471948833</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9637453149405877</v>
+        <v>1.004517616147602</v>
       </c>
       <c r="D21">
-        <v>0.991149085706878</v>
+        <v>1.026268824030754</v>
       </c>
       <c r="E21">
-        <v>0.9805203515563006</v>
+        <v>1.020400365574466</v>
       </c>
       <c r="F21">
-        <v>0.9866328650651364</v>
+        <v>1.028721736941058</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033958980542739</v>
+        <v>1.047167396556234</v>
       </c>
       <c r="J21">
-        <v>0.9948411211133181</v>
+        <v>1.033827664492082</v>
       </c>
       <c r="K21">
-        <v>1.006300104200533</v>
+        <v>1.040769049037034</v>
       </c>
       <c r="L21">
-        <v>0.9958804145636908</v>
+        <v>1.035005286641853</v>
       </c>
       <c r="M21">
-        <v>1.001871985700372</v>
+        <v>1.043178659685138</v>
       </c>
       <c r="N21">
-        <v>0.9962539096151704</v>
+        <v>1.014487461244432</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9550729154784164</v>
+        <v>1.000629248300724</v>
       </c>
       <c r="D22">
-        <v>0.9844346440236607</v>
+        <v>1.02325058480642</v>
       </c>
       <c r="E22">
-        <v>0.9728491828284486</v>
+        <v>1.017177619715897</v>
       </c>
       <c r="F22">
-        <v>0.9786012988091402</v>
+        <v>1.025240687678426</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030654509042796</v>
+        <v>1.045858812514293</v>
       </c>
       <c r="J22">
-        <v>0.9879199776995817</v>
+        <v>1.031341847707728</v>
       </c>
       <c r="K22">
-        <v>1.000320891214645</v>
+        <v>1.038375098440847</v>
       </c>
       <c r="L22">
-        <v>0.9889783974351763</v>
+        <v>1.032416296143195</v>
       </c>
       <c r="M22">
-        <v>0.9946089304947842</v>
+        <v>1.040328174021079</v>
       </c>
       <c r="N22">
-        <v>0.9893229373839207</v>
+        <v>1.013629308469408</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9597177011024756</v>
+        <v>1.002699668055385</v>
       </c>
       <c r="D23">
-        <v>0.98802951094978</v>
+        <v>1.024857127730973</v>
       </c>
       <c r="E23">
-        <v>0.9769567038556409</v>
+        <v>1.01889280911235</v>
       </c>
       <c r="F23">
-        <v>0.9829012741233462</v>
+        <v>1.027093345362147</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032425610014571</v>
+        <v>1.046556325084046</v>
       </c>
       <c r="J23">
-        <v>0.9916269602168664</v>
+        <v>1.032665596752</v>
       </c>
       <c r="K23">
-        <v>1.003523487072197</v>
+        <v>1.039649940934104</v>
       </c>
       <c r="L23">
-        <v>0.9926751398144912</v>
+        <v>1.033794695240024</v>
       </c>
       <c r="M23">
-        <v>0.9984983779453396</v>
+        <v>1.041845688033638</v>
       </c>
       <c r="N23">
-        <v>0.9930351842415766</v>
+        <v>1.014086311250196</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9770159578822512</v>
+        <v>1.010653874756416</v>
       </c>
       <c r="D24">
-        <v>1.001442291768697</v>
+        <v>1.03104101466655</v>
       </c>
       <c r="E24">
-        <v>0.9922740453528686</v>
+        <v>1.02549950478986</v>
       </c>
       <c r="F24">
-        <v>0.9989472487572088</v>
+        <v>1.034229678380199</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038993125314272</v>
+        <v>1.049219699216099</v>
       </c>
       <c r="J24">
-        <v>1.005428396475938</v>
+        <v>1.037747891850485</v>
       </c>
       <c r="K24">
-        <v>1.015444126400801</v>
+        <v>1.044544095006444</v>
       </c>
       <c r="L24">
-        <v>1.006438209599665</v>
+        <v>1.039093144710524</v>
       </c>
       <c r="M24">
-        <v>1.012992877144063</v>
+        <v>1.047681213856741</v>
       </c>
       <c r="N24">
-        <v>1.006856220123183</v>
+        <v>1.015840438824412</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9953867765394536</v>
+        <v>1.019509078078406</v>
       </c>
       <c r="D25">
-        <v>1.015723203438273</v>
+        <v>1.037946699756426</v>
       </c>
       <c r="E25">
-        <v>1.008571543611395</v>
+        <v>1.032887184768365</v>
       </c>
       <c r="F25">
-        <v>1.016041188647523</v>
+        <v>1.042210059512363</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045904767376775</v>
+        <v>1.052149701924855</v>
       </c>
       <c r="J25">
-        <v>1.020070397740921</v>
+        <v>1.043397260712878</v>
       </c>
       <c r="K25">
-        <v>1.0280822434784</v>
+        <v>1.04998317656169</v>
       </c>
       <c r="L25">
-        <v>1.021038238840453</v>
+        <v>1.044995553263107</v>
       </c>
       <c r="M25">
-        <v>1.028395486756837</v>
+        <v>1.05418664153392</v>
       </c>
       <c r="N25">
-        <v>1.021519014709423</v>
+        <v>1.017789084820071</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_52/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.026298646918087</v>
+        <v>1.053970280515662</v>
       </c>
       <c r="D2">
-        <v>1.04325607464542</v>
+        <v>1.060183157554081</v>
       </c>
       <c r="E2">
-        <v>1.038575414773567</v>
+        <v>1.060729293787088</v>
       </c>
       <c r="F2">
-        <v>1.04835519485994</v>
+        <v>1.071783102435846</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054366580824043</v>
+        <v>1.047391627475972</v>
       </c>
       <c r="J2">
-        <v>1.04772024707166</v>
+        <v>1.058984830962287</v>
       </c>
       <c r="K2">
-        <v>1.054143964192667</v>
+        <v>1.062910631262459</v>
       </c>
       <c r="L2">
-        <v>1.049522271196915</v>
+        <v>1.06345528113359</v>
       </c>
       <c r="M2">
-        <v>1.059179592008933</v>
+        <v>1.074479357892147</v>
       </c>
       <c r="N2">
-        <v>1.019278987930558</v>
+        <v>1.023404877927164</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.031083069152915</v>
+        <v>1.054982471454197</v>
       </c>
       <c r="D3">
-        <v>1.047004734919378</v>
+        <v>1.061000159801093</v>
       </c>
       <c r="E3">
-        <v>1.042596546944649</v>
+        <v>1.061628642693826</v>
       </c>
       <c r="F3">
-        <v>1.052699727394154</v>
+        <v>1.072760380921049</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055910851937813</v>
+        <v>1.047665613840825</v>
       </c>
       <c r="J3">
-        <v>1.05076080832647</v>
+        <v>1.059647812783776</v>
       </c>
       <c r="K3">
-        <v>1.057069534214193</v>
+        <v>1.063542002362599</v>
       </c>
       <c r="L3">
-        <v>1.052711932006605</v>
+        <v>1.064168898251827</v>
       </c>
       <c r="M3">
-        <v>1.062699947139337</v>
+        <v>1.075272859041089</v>
       </c>
       <c r="N3">
-        <v>1.020326066118379</v>
+        <v>1.023630156382624</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.034115595179874</v>
+        <v>1.055637854959629</v>
       </c>
       <c r="D4">
-        <v>1.049383786401758</v>
+        <v>1.061529188587655</v>
       </c>
       <c r="E4">
-        <v>1.045150888819924</v>
+        <v>1.062211311221711</v>
       </c>
       <c r="F4">
-        <v>1.055459717391518</v>
+        <v>1.073393598220148</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056881138011121</v>
+        <v>1.047841928800197</v>
       </c>
       <c r="J4">
-        <v>1.052685125063465</v>
+        <v>1.060076612137426</v>
       </c>
       <c r="K4">
-        <v>1.058920602102954</v>
+        <v>1.063950261889957</v>
       </c>
       <c r="L4">
-        <v>1.054733290535502</v>
+        <v>1.064630748668571</v>
       </c>
       <c r="M4">
-        <v>1.064931880511993</v>
+        <v>1.075786536574731</v>
       </c>
       <c r="N4">
-        <v>1.02098831214611</v>
+        <v>1.023775752224478</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.035375864802645</v>
+        <v>1.055913480111331</v>
       </c>
       <c r="D5">
-        <v>1.050373159223592</v>
+        <v>1.061751680689362</v>
       </c>
       <c r="E5">
-        <v>1.046213736952827</v>
+        <v>1.062456438694323</v>
       </c>
       <c r="F5">
-        <v>1.056608190129504</v>
+        <v>1.073660005845333</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057282293162701</v>
+        <v>1.0479158183614</v>
       </c>
       <c r="J5">
-        <v>1.05348411190073</v>
+        <v>1.060256832158485</v>
       </c>
       <c r="K5">
-        <v>1.059689054596657</v>
+        <v>1.064121826429226</v>
       </c>
       <c r="L5">
-        <v>1.055573212095279</v>
+        <v>1.064824931879077</v>
       </c>
       <c r="M5">
-        <v>1.065859542678013</v>
+        <v>1.076002540567603</v>
       </c>
       <c r="N5">
-        <v>1.021263170759589</v>
+        <v>1.023836918627022</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.035586628783244</v>
+        <v>1.055959764746618</v>
       </c>
       <c r="D6">
-        <v>1.050538657569686</v>
+        <v>1.061789043245141</v>
       </c>
       <c r="E6">
-        <v>1.046391560169478</v>
+        <v>1.062497606826318</v>
       </c>
       <c r="F6">
-        <v>1.056800342423083</v>
+        <v>1.073704748734734</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057349257939231</v>
+        <v>1.047928211053954</v>
       </c>
       <c r="J6">
-        <v>1.053617688413211</v>
+        <v>1.06028708910241</v>
       </c>
       <c r="K6">
-        <v>1.059817518974634</v>
+        <v>1.064150628873753</v>
       </c>
       <c r="L6">
-        <v>1.055713669935131</v>
+        <v>1.064857537319235</v>
       </c>
       <c r="M6">
-        <v>1.066014687375077</v>
+        <v>1.076038811725881</v>
       </c>
       <c r="N6">
-        <v>1.021309115654657</v>
+        <v>1.023847186257088</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.034132491636665</v>
+        <v>1.055641537476639</v>
       </c>
       <c r="D7">
-        <v>1.04939704833025</v>
+        <v>1.061532161191987</v>
       </c>
       <c r="E7">
-        <v>1.045165133346462</v>
+        <v>1.062214585946094</v>
       </c>
       <c r="F7">
-        <v>1.055475109253618</v>
+        <v>1.073397157175287</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056886524568706</v>
+        <v>1.047842917033152</v>
       </c>
       <c r="J7">
-        <v>1.05269584001715</v>
+        <v>1.060079020432648</v>
       </c>
       <c r="K7">
-        <v>1.058930908058506</v>
+        <v>1.063952554610976</v>
       </c>
       <c r="L7">
-        <v>1.054744551913025</v>
+        <v>1.064633343271493</v>
       </c>
       <c r="M7">
-        <v>1.064944317329189</v>
+        <v>1.075789422619786</v>
       </c>
       <c r="N7">
-        <v>1.020991998626989</v>
+        <v>1.023776569698752</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.027929016947627</v>
+        <v>1.054312266137109</v>
       </c>
       <c r="D8">
-        <v>1.044532826673144</v>
+        <v>1.060459189270613</v>
       </c>
       <c r="E8">
-        <v>1.03994447706711</v>
+        <v>1.061033081247354</v>
       </c>
       <c r="F8">
-        <v>1.049834321783832</v>
+        <v>1.072113201052326</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054894582363428</v>
+        <v>1.04748442356844</v>
       </c>
       <c r="J8">
-        <v>1.048756952953051</v>
+        <v>1.059208928546532</v>
       </c>
       <c r="K8">
-        <v>1.055141557413518</v>
+        <v>1.063124063543415</v>
       </c>
       <c r="L8">
-        <v>1.050609251048712</v>
+        <v>1.063696431742859</v>
       </c>
       <c r="M8">
-        <v>1.060379055691905</v>
+        <v>1.074747477302838</v>
       </c>
       <c r="N8">
-        <v>1.019636085068078</v>
+        <v>1.023481047737489</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.016486408847465</v>
+        <v>1.051973227055887</v>
       </c>
       <c r="D9">
-        <v>1.035587023590293</v>
+        <v>1.058571384730558</v>
       </c>
       <c r="E9">
-        <v>1.030361532019181</v>
+        <v>1.058956753798304</v>
       </c>
       <c r="F9">
-        <v>1.03948170364213</v>
+        <v>1.069857285270036</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051154140887824</v>
+        <v>1.046845282341331</v>
       </c>
       <c r="J9">
-        <v>1.041470126723266</v>
+        <v>1.05767426024382</v>
       </c>
       <c r="K9">
-        <v>1.048127955843562</v>
+        <v>1.061662048084429</v>
       </c>
       <c r="L9">
-        <v>1.042980497965651</v>
+        <v>1.062046218417307</v>
       </c>
       <c r="M9">
-        <v>1.051965123541164</v>
+        <v>1.072913232761911</v>
       </c>
       <c r="N9">
-        <v>1.017124532139569</v>
+        <v>1.022958979780124</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.008474879646474</v>
+        <v>1.050416125161905</v>
       </c>
       <c r="D10">
-        <v>1.029345145865441</v>
+        <v>1.05731486654599</v>
       </c>
       <c r="E10">
-        <v>1.023686917710422</v>
+        <v>1.057576385648147</v>
       </c>
       <c r="F10">
-        <v>1.032271754899638</v>
+        <v>1.068357827866676</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048492819103869</v>
+        <v>1.046414217169599</v>
       </c>
       <c r="J10">
-        <v>1.036356240658402</v>
+        <v>1.056650211998467</v>
       </c>
       <c r="K10">
-        <v>1.043204035436951</v>
+        <v>1.060685999146492</v>
       </c>
       <c r="L10">
-        <v>1.037641274231847</v>
+        <v>1.06094662510515</v>
       </c>
       <c r="M10">
-        <v>1.046081794918265</v>
+        <v>1.071691664371541</v>
       </c>
       <c r="N10">
-        <v>1.015360200964856</v>
+        <v>1.022610066591584</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.004905356730134</v>
+        <v>1.049742424886378</v>
       </c>
       <c r="D11">
-        <v>1.026570044467716</v>
+        <v>1.05677127177604</v>
       </c>
       <c r="E11">
-        <v>1.020722088847152</v>
+        <v>1.056979596834605</v>
       </c>
       <c r="F11">
-        <v>1.029069248522336</v>
+        <v>1.067709623294419</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047297555913633</v>
+        <v>1.04622638708637</v>
       </c>
       <c r="J11">
-        <v>1.034075481457753</v>
+        <v>1.056206574354415</v>
       </c>
       <c r="K11">
-        <v>1.041007700889558</v>
+        <v>1.060263043044137</v>
       </c>
       <c r="L11">
-        <v>1.035263518978813</v>
+        <v>1.060470629101546</v>
       </c>
       <c r="M11">
-        <v>1.043463021844216</v>
+        <v>1.071163021873343</v>
       </c>
       <c r="N11">
-        <v>1.014573003910693</v>
+        <v>1.022458781566475</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.003563497111695</v>
+        <v>1.049492263456384</v>
       </c>
       <c r="D12">
-        <v>1.025527796483846</v>
+        <v>1.056569430464538</v>
       </c>
       <c r="E12">
-        <v>1.019608972639915</v>
+        <v>1.056758062048863</v>
       </c>
       <c r="F12">
-        <v>1.027866910406206</v>
+        <v>1.067469013062322</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046846851079051</v>
+        <v>1.046156442307366</v>
       </c>
       <c r="J12">
-        <v>1.033217805296735</v>
+        <v>1.05604175546833</v>
       </c>
       <c r="K12">
-        <v>1.040181738728397</v>
+        <v>1.060105890867979</v>
       </c>
       <c r="L12">
-        <v>1.034369897304865</v>
+        <v>1.06029384404568</v>
       </c>
       <c r="M12">
-        <v>1.042479014268864</v>
+        <v>1.07096670711974</v>
       </c>
       <c r="N12">
-        <v>1.014276939991573</v>
+        <v>1.022402557338941</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.003852068593196</v>
+        <v>1.04954592026639</v>
       </c>
       <c r="D13">
-        <v>1.025751890285391</v>
+        <v>1.056612722746936</v>
       </c>
       <c r="E13">
-        <v>1.019848286497805</v>
+        <v>1.05680557569982</v>
       </c>
       <c r="F13">
-        <v>1.028125406040415</v>
+        <v>1.067520617435749</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046943838210685</v>
+        <v>1.04617145367306</v>
       </c>
       <c r="J13">
-        <v>1.033402263730401</v>
+        <v>1.05607711112173</v>
       </c>
       <c r="K13">
-        <v>1.040359377846308</v>
+        <v>1.060139602679075</v>
       </c>
       <c r="L13">
-        <v>1.034562062466365</v>
+        <v>1.060331764075522</v>
       </c>
       <c r="M13">
-        <v>1.04269060727746</v>
+        <v>1.071008815178265</v>
       </c>
       <c r="N13">
-        <v>1.014340615434709</v>
+        <v>1.022414618989709</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.004794769523532</v>
+        <v>1.049721744812598</v>
       </c>
       <c r="D14">
-        <v>1.026484129067677</v>
+        <v>1.056754585995173</v>
       </c>
       <c r="E14">
-        <v>1.020630323768936</v>
+        <v>1.056961281855801</v>
       </c>
       <c r="F14">
-        <v>1.028970127800121</v>
+        <v>1.067689731070988</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047260439549091</v>
+        <v>1.046220609023955</v>
       </c>
       <c r="J14">
-        <v>1.034004803044925</v>
+        <v>1.056192951025243</v>
       </c>
       <c r="K14">
-        <v>1.040939636548551</v>
+        <v>1.060250053760093</v>
       </c>
       <c r="L14">
-        <v>1.035189867622633</v>
+        <v>1.060456015559858</v>
       </c>
       <c r="M14">
-        <v>1.043381917013527</v>
+        <v>1.071146793478945</v>
       </c>
       <c r="N14">
-        <v>1.014548606966294</v>
+        <v>1.02245413466923</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.005373453643103</v>
+        <v>1.049830086845388</v>
       </c>
       <c r="D15">
-        <v>1.026933749871884</v>
+        <v>1.056842002458454</v>
       </c>
       <c r="E15">
-        <v>1.021110573418037</v>
+        <v>1.05705723602564</v>
       </c>
       <c r="F15">
-        <v>1.029488873428781</v>
+        <v>1.067793949033976</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047454607257477</v>
+        <v>1.046250871904314</v>
       </c>
       <c r="J15">
-        <v>1.03437463969214</v>
+        <v>1.056264319577012</v>
       </c>
       <c r="K15">
-        <v>1.041295793318095</v>
+        <v>1.060318100050159</v>
       </c>
       <c r="L15">
-        <v>1.03557528230214</v>
+        <v>1.060532573812395</v>
       </c>
       <c r="M15">
-        <v>1.043806343379559</v>
+        <v>1.071231812664867</v>
       </c>
       <c r="N15">
-        <v>1.014676266502687</v>
+        <v>1.02247847758671</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.008709586164265</v>
+        <v>1.050460847743304</v>
       </c>
       <c r="D16">
-        <v>1.029527747312648</v>
+        <v>1.057350953462256</v>
       </c>
       <c r="E16">
-        <v>1.023882057724295</v>
+        <v>1.057616012016641</v>
       </c>
       <c r="F16">
-        <v>1.032482540387008</v>
+        <v>1.068400869705843</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048571217068584</v>
+        <v>1.046426658086957</v>
       </c>
       <c r="J16">
-        <v>1.036506164107471</v>
+        <v>1.05667965022939</v>
       </c>
       <c r="K16">
-        <v>1.043348404019836</v>
+        <v>1.060714062657721</v>
       </c>
       <c r="L16">
-        <v>1.03779764683915</v>
+        <v>1.060978218303626</v>
       </c>
       <c r="M16">
-        <v>1.046254044990313</v>
+        <v>1.071726755123394</v>
       </c>
       <c r="N16">
-        <v>1.015411940654104</v>
+        <v>1.022620102623535</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.010774748966148</v>
+        <v>1.05085665097487</v>
       </c>
       <c r="D17">
-        <v>1.031135128727065</v>
+        <v>1.057670335766647</v>
       </c>
       <c r="E17">
-        <v>1.025600114177934</v>
+        <v>1.057966764352869</v>
       </c>
       <c r="F17">
-        <v>1.034338355578103</v>
+        <v>1.068781862281026</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04925995711116</v>
+        <v>1.046536609515034</v>
       </c>
       <c r="J17">
-        <v>1.037825074881744</v>
+        <v>1.056940118261418</v>
       </c>
       <c r="K17">
-        <v>1.044618414687303</v>
+        <v>1.060962354234045</v>
       </c>
       <c r="L17">
-        <v>1.039173691122068</v>
+        <v>1.061257796031699</v>
       </c>
       <c r="M17">
-        <v>1.04776995460166</v>
+        <v>1.072037301609721</v>
       </c>
       <c r="N17">
-        <v>1.015867071399952</v>
+        <v>1.022708886055279</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.011969691874957</v>
+        <v>1.051087567903972</v>
       </c>
       <c r="D18">
-        <v>1.032065750236365</v>
+        <v>1.05785667287675</v>
       </c>
       <c r="E18">
-        <v>1.026595066845489</v>
+        <v>1.058171440928901</v>
       </c>
       <c r="F18">
-        <v>1.035413097753188</v>
+        <v>1.069004192013359</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049657569355808</v>
+        <v>1.046600628829642</v>
       </c>
       <c r="J18">
-        <v>1.038588002585805</v>
+        <v>1.057092023781227</v>
       </c>
       <c r="K18">
-        <v>1.045353026903888</v>
+        <v>1.061107147541863</v>
       </c>
       <c r="L18">
-        <v>1.039969999705551</v>
+        <v>1.061420881980791</v>
       </c>
       <c r="M18">
-        <v>1.048647324981894</v>
+        <v>1.072218467461908</v>
       </c>
       <c r="N18">
-        <v>1.016130312485203</v>
+        <v>1.022760652291314</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.012375528640509</v>
+        <v>1.051166313348027</v>
       </c>
       <c r="D19">
-        <v>1.032381908620625</v>
+        <v>1.057920216926553</v>
       </c>
       <c r="E19">
-        <v>1.026933123771801</v>
+        <v>1.058241245362738</v>
       </c>
       <c r="F19">
-        <v>1.035778266991816</v>
+        <v>1.069080018182389</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049792454716147</v>
+        <v>1.046622438500181</v>
       </c>
       <c r="J19">
-        <v>1.038847075919958</v>
+        <v>1.057143816043544</v>
       </c>
       <c r="K19">
-        <v>1.045602479671047</v>
+        <v>1.061156513044101</v>
       </c>
       <c r="L19">
-        <v>1.040240464640507</v>
+        <v>1.061476492255592</v>
       </c>
       <c r="M19">
-        <v>1.04894534320099</v>
+        <v>1.072280245287127</v>
       </c>
       <c r="N19">
-        <v>1.016219697896537</v>
+        <v>1.022778299899674</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.010554178969223</v>
+        <v>1.05081417969334</v>
       </c>
       <c r="D20">
-        <v>1.030963393527692</v>
+        <v>1.057636064218467</v>
       </c>
       <c r="E20">
-        <v>1.025416528028453</v>
+        <v>1.057929122767769</v>
       </c>
       <c r="F20">
-        <v>1.034140047824115</v>
+        <v>1.068740974700756</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049186489791129</v>
+        <v>1.04652482450388</v>
       </c>
       <c r="J20">
-        <v>1.037684230842797</v>
+        <v>1.056912174682012</v>
       </c>
       <c r="K20">
-        <v>1.044482795540523</v>
+        <v>1.060935718095781</v>
       </c>
       <c r="L20">
-        <v>1.039026711444851</v>
+        <v>1.06122779863828</v>
       </c>
       <c r="M20">
-        <v>1.047608022742208</v>
+        <v>1.07200397986981</v>
       </c>
       <c r="N20">
-        <v>1.015818471948833</v>
+        <v>1.022699362462234</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.004517616147602</v>
+        <v>1.049669966630558</v>
       </c>
       <c r="D21">
-        <v>1.026268824030754</v>
+        <v>1.056712808753988</v>
       </c>
       <c r="E21">
-        <v>1.020400365574466</v>
+        <v>1.056915426424622</v>
       </c>
       <c r="F21">
-        <v>1.028721736941058</v>
+        <v>1.067639926845778</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047167396556234</v>
+        <v>1.046206138862747</v>
       </c>
       <c r="J21">
-        <v>1.033827664492082</v>
+        <v>1.056158839942195</v>
       </c>
       <c r="K21">
-        <v>1.040769049037034</v>
+        <v>1.060217529973809</v>
       </c>
       <c r="L21">
-        <v>1.035005286641853</v>
+        <v>1.060419426007408</v>
       </c>
       <c r="M21">
-        <v>1.043178659685138</v>
+        <v>1.071106161015093</v>
       </c>
       <c r="N21">
-        <v>1.014487461244432</v>
+        <v>1.022442499118591</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.000629248300724</v>
+        <v>1.048951022459842</v>
       </c>
       <c r="D22">
-        <v>1.02325058480642</v>
+        <v>1.056132749971592</v>
       </c>
       <c r="E22">
-        <v>1.017177619715897</v>
+        <v>1.056278880873505</v>
       </c>
       <c r="F22">
-        <v>1.025240687678426</v>
+        <v>1.066948591020991</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045858812514293</v>
+        <v>1.046004748582103</v>
       </c>
       <c r="J22">
-        <v>1.031341847707728</v>
+        <v>1.055685003019493</v>
       </c>
       <c r="K22">
-        <v>1.038375098440847</v>
+        <v>1.059765702427745</v>
       </c>
       <c r="L22">
-        <v>1.032416296143195</v>
+        <v>1.059911292231849</v>
       </c>
       <c r="M22">
-        <v>1.040328174021079</v>
+        <v>1.070541936741418</v>
       </c>
       <c r="N22">
-        <v>1.013629308469408</v>
+        <v>1.022280824174124</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.002699668055385</v>
+        <v>1.049332103854059</v>
       </c>
       <c r="D23">
-        <v>1.024857127730973</v>
+        <v>1.056440209152786</v>
       </c>
       <c r="E23">
-        <v>1.01889280911235</v>
+        <v>1.056616249028372</v>
       </c>
       <c r="F23">
-        <v>1.027093345362147</v>
+        <v>1.067314992104459</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046556325084046</v>
+        <v>1.046111605940395</v>
       </c>
       <c r="J23">
-        <v>1.032665596752</v>
+        <v>1.055936210303818</v>
       </c>
       <c r="K23">
-        <v>1.039649940934104</v>
+        <v>1.060005250512515</v>
       </c>
       <c r="L23">
-        <v>1.033794695240024</v>
+        <v>1.060180651728701</v>
       </c>
       <c r="M23">
-        <v>1.041845688033638</v>
+        <v>1.070841016825232</v>
       </c>
       <c r="N23">
-        <v>1.014086311250196</v>
+        <v>1.022366547582616</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.010653874756416</v>
+        <v>1.050833370477834</v>
       </c>
       <c r="D24">
-        <v>1.03104101466655</v>
+        <v>1.057651549911308</v>
       </c>
       <c r="E24">
-        <v>1.02549950478986</v>
+        <v>1.057946131105896</v>
       </c>
       <c r="F24">
-        <v>1.034229678380199</v>
+        <v>1.068759449719459</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049219699216099</v>
+        <v>1.046530149993826</v>
       </c>
       <c r="J24">
-        <v>1.037747891850485</v>
+        <v>1.056924801247872</v>
       </c>
       <c r="K24">
-        <v>1.044544095006444</v>
+        <v>1.060947753915843</v>
       </c>
       <c r="L24">
-        <v>1.039093144710524</v>
+        <v>1.061241353129043</v>
       </c>
       <c r="M24">
-        <v>1.047681213856741</v>
+        <v>1.072019036439146</v>
       </c>
       <c r="N24">
-        <v>1.015840438824412</v>
+        <v>1.022703665824691</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.019509078078406</v>
+        <v>1.052577529347698</v>
       </c>
       <c r="D25">
-        <v>1.037946699756426</v>
+        <v>1.059059076302033</v>
       </c>
       <c r="E25">
-        <v>1.032887184768365</v>
+        <v>1.05949286011744</v>
       </c>
       <c r="F25">
-        <v>1.042210059512363</v>
+        <v>1.070439707437744</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052149701924855</v>
+        <v>1.047011393645549</v>
       </c>
       <c r="J25">
-        <v>1.043397260712878</v>
+        <v>1.058071176882173</v>
       </c>
       <c r="K25">
-        <v>1.04998317656169</v>
+        <v>1.062040259288155</v>
       </c>
       <c r="L25">
-        <v>1.044995553263107</v>
+        <v>1.062472744917157</v>
       </c>
       <c r="M25">
-        <v>1.05418664153392</v>
+        <v>1.07338721056367</v>
       </c>
       <c r="N25">
-        <v>1.017789084820071</v>
+        <v>1.02309410129297</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_52/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.053970280515662</v>
+        <v>1.026298646918087</v>
       </c>
       <c r="D2">
-        <v>1.060183157554081</v>
+        <v>1.04325607464542</v>
       </c>
       <c r="E2">
-        <v>1.060729293787088</v>
+        <v>1.038575414773567</v>
       </c>
       <c r="F2">
-        <v>1.071783102435846</v>
+        <v>1.048355194859941</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047391627475972</v>
+        <v>1.054366580824043</v>
       </c>
       <c r="J2">
-        <v>1.058984830962287</v>
+        <v>1.04772024707166</v>
       </c>
       <c r="K2">
-        <v>1.062910631262459</v>
+        <v>1.054143964192667</v>
       </c>
       <c r="L2">
-        <v>1.06345528113359</v>
+        <v>1.049522271196915</v>
       </c>
       <c r="M2">
-        <v>1.074479357892147</v>
+        <v>1.059179592008933</v>
       </c>
       <c r="N2">
-        <v>1.023404877927164</v>
+        <v>1.019278987930558</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.054982471454197</v>
+        <v>1.031083069152914</v>
       </c>
       <c r="D3">
-        <v>1.061000159801093</v>
+        <v>1.047004734919377</v>
       </c>
       <c r="E3">
-        <v>1.061628642693826</v>
+        <v>1.042596546944649</v>
       </c>
       <c r="F3">
-        <v>1.072760380921049</v>
+        <v>1.052699727394154</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047665613840825</v>
+        <v>1.055910851937812</v>
       </c>
       <c r="J3">
-        <v>1.059647812783776</v>
+        <v>1.050760808326469</v>
       </c>
       <c r="K3">
-        <v>1.063542002362599</v>
+        <v>1.057069534214192</v>
       </c>
       <c r="L3">
-        <v>1.064168898251827</v>
+        <v>1.052711932006605</v>
       </c>
       <c r="M3">
-        <v>1.075272859041089</v>
+        <v>1.062699947139337</v>
       </c>
       <c r="N3">
-        <v>1.023630156382624</v>
+        <v>1.02032606611838</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.055637854959629</v>
+        <v>1.034115595179875</v>
       </c>
       <c r="D4">
-        <v>1.061529188587655</v>
+        <v>1.049383786401759</v>
       </c>
       <c r="E4">
-        <v>1.062211311221711</v>
+        <v>1.045150888819924</v>
       </c>
       <c r="F4">
-        <v>1.073393598220148</v>
+        <v>1.055459717391519</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047841928800197</v>
+        <v>1.056881138011122</v>
       </c>
       <c r="J4">
-        <v>1.060076612137426</v>
+        <v>1.052685125063466</v>
       </c>
       <c r="K4">
-        <v>1.063950261889957</v>
+        <v>1.058920602102954</v>
       </c>
       <c r="L4">
-        <v>1.064630748668571</v>
+        <v>1.054733290535503</v>
       </c>
       <c r="M4">
-        <v>1.075786536574731</v>
+        <v>1.064931880511994</v>
       </c>
       <c r="N4">
-        <v>1.023775752224478</v>
+        <v>1.02098831214611</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.055913480111331</v>
+        <v>1.035375864802645</v>
       </c>
       <c r="D5">
-        <v>1.061751680689362</v>
+        <v>1.050373159223592</v>
       </c>
       <c r="E5">
-        <v>1.062456438694323</v>
+        <v>1.046213736952827</v>
       </c>
       <c r="F5">
-        <v>1.073660005845333</v>
+        <v>1.056608190129504</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.0479158183614</v>
+        <v>1.057282293162701</v>
       </c>
       <c r="J5">
-        <v>1.060256832158485</v>
+        <v>1.05348411190073</v>
       </c>
       <c r="K5">
-        <v>1.064121826429226</v>
+        <v>1.059689054596657</v>
       </c>
       <c r="L5">
-        <v>1.064824931879077</v>
+        <v>1.055573212095279</v>
       </c>
       <c r="M5">
-        <v>1.076002540567603</v>
+        <v>1.065859542678013</v>
       </c>
       <c r="N5">
-        <v>1.023836918627022</v>
+        <v>1.021263170759589</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.055959764746618</v>
+        <v>1.035586628783243</v>
       </c>
       <c r="D6">
-        <v>1.061789043245141</v>
+        <v>1.050538657569686</v>
       </c>
       <c r="E6">
-        <v>1.062497606826318</v>
+        <v>1.046391560169477</v>
       </c>
       <c r="F6">
-        <v>1.073704748734734</v>
+        <v>1.056800342423082</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047928211053954</v>
+        <v>1.057349257939231</v>
       </c>
       <c r="J6">
-        <v>1.06028708910241</v>
+        <v>1.05361768841321</v>
       </c>
       <c r="K6">
-        <v>1.064150628873753</v>
+        <v>1.059817518974633</v>
       </c>
       <c r="L6">
-        <v>1.064857537319235</v>
+        <v>1.055713669935131</v>
       </c>
       <c r="M6">
-        <v>1.076038811725881</v>
+        <v>1.066014687375076</v>
       </c>
       <c r="N6">
-        <v>1.023847186257088</v>
+        <v>1.021309115654656</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.055641537476639</v>
+        <v>1.034132491636665</v>
       </c>
       <c r="D7">
-        <v>1.061532161191987</v>
+        <v>1.049397048330249</v>
       </c>
       <c r="E7">
-        <v>1.062214585946094</v>
+        <v>1.045165133346461</v>
       </c>
       <c r="F7">
-        <v>1.073397157175287</v>
+        <v>1.055475109253617</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047842917033152</v>
+        <v>1.056886524568706</v>
       </c>
       <c r="J7">
-        <v>1.060079020432648</v>
+        <v>1.052695840017149</v>
       </c>
       <c r="K7">
-        <v>1.063952554610976</v>
+        <v>1.058930908058505</v>
       </c>
       <c r="L7">
-        <v>1.064633343271493</v>
+        <v>1.054744551913024</v>
       </c>
       <c r="M7">
-        <v>1.075789422619786</v>
+        <v>1.064944317329188</v>
       </c>
       <c r="N7">
-        <v>1.023776569698752</v>
+        <v>1.020991998626989</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.054312266137109</v>
+        <v>1.027929016947627</v>
       </c>
       <c r="D8">
-        <v>1.060459189270613</v>
+        <v>1.044532826673144</v>
       </c>
       <c r="E8">
-        <v>1.061033081247354</v>
+        <v>1.03994447706711</v>
       </c>
       <c r="F8">
-        <v>1.072113201052326</v>
+        <v>1.049834321783832</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04748442356844</v>
+        <v>1.054894582363428</v>
       </c>
       <c r="J8">
-        <v>1.059208928546532</v>
+        <v>1.048756952953051</v>
       </c>
       <c r="K8">
-        <v>1.063124063543415</v>
+        <v>1.055141557413518</v>
       </c>
       <c r="L8">
-        <v>1.063696431742859</v>
+        <v>1.050609251048711</v>
       </c>
       <c r="M8">
-        <v>1.074747477302838</v>
+        <v>1.060379055691905</v>
       </c>
       <c r="N8">
-        <v>1.023481047737489</v>
+        <v>1.019636085068078</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.051973227055887</v>
+        <v>1.016486408847464</v>
       </c>
       <c r="D9">
-        <v>1.058571384730558</v>
+        <v>1.035587023590292</v>
       </c>
       <c r="E9">
-        <v>1.058956753798304</v>
+        <v>1.030361532019181</v>
       </c>
       <c r="F9">
-        <v>1.069857285270036</v>
+        <v>1.039481703642129</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046845282341331</v>
+        <v>1.051154140887823</v>
       </c>
       <c r="J9">
-        <v>1.05767426024382</v>
+        <v>1.041470126723265</v>
       </c>
       <c r="K9">
-        <v>1.061662048084429</v>
+        <v>1.048127955843562</v>
       </c>
       <c r="L9">
-        <v>1.062046218417307</v>
+        <v>1.042980497965651</v>
       </c>
       <c r="M9">
-        <v>1.072913232761911</v>
+        <v>1.051965123541164</v>
       </c>
       <c r="N9">
-        <v>1.022958979780124</v>
+        <v>1.017124532139569</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.050416125161905</v>
+        <v>1.008474879646473</v>
       </c>
       <c r="D10">
-        <v>1.05731486654599</v>
+        <v>1.02934514586544</v>
       </c>
       <c r="E10">
-        <v>1.057576385648147</v>
+        <v>1.023686917710422</v>
       </c>
       <c r="F10">
-        <v>1.068357827866676</v>
+        <v>1.032271754899637</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046414217169599</v>
+        <v>1.048492819103869</v>
       </c>
       <c r="J10">
-        <v>1.056650211998467</v>
+        <v>1.036356240658401</v>
       </c>
       <c r="K10">
-        <v>1.060685999146492</v>
+        <v>1.04320403543695</v>
       </c>
       <c r="L10">
-        <v>1.06094662510515</v>
+        <v>1.037641274231846</v>
       </c>
       <c r="M10">
-        <v>1.071691664371541</v>
+        <v>1.046081794918265</v>
       </c>
       <c r="N10">
-        <v>1.022610066591584</v>
+        <v>1.015360200964856</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.049742424886378</v>
+        <v>1.004905356730134</v>
       </c>
       <c r="D11">
-        <v>1.05677127177604</v>
+        <v>1.026570044467715</v>
       </c>
       <c r="E11">
-        <v>1.056979596834605</v>
+        <v>1.020722088847152</v>
       </c>
       <c r="F11">
-        <v>1.067709623294419</v>
+        <v>1.029069248522336</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04622638708637</v>
+        <v>1.047297555913633</v>
       </c>
       <c r="J11">
-        <v>1.056206574354415</v>
+        <v>1.034075481457753</v>
       </c>
       <c r="K11">
-        <v>1.060263043044137</v>
+        <v>1.041007700889558</v>
       </c>
       <c r="L11">
-        <v>1.060470629101546</v>
+        <v>1.035263518978813</v>
       </c>
       <c r="M11">
-        <v>1.071163021873343</v>
+        <v>1.043463021844216</v>
       </c>
       <c r="N11">
-        <v>1.022458781566475</v>
+        <v>1.014573003910693</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.049492263456384</v>
+        <v>1.003563497111695</v>
       </c>
       <c r="D12">
-        <v>1.056569430464538</v>
+        <v>1.025527796483846</v>
       </c>
       <c r="E12">
-        <v>1.056758062048863</v>
+        <v>1.019608972639915</v>
       </c>
       <c r="F12">
-        <v>1.067469013062322</v>
+        <v>1.027866910406207</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046156442307366</v>
+        <v>1.046846851079051</v>
       </c>
       <c r="J12">
-        <v>1.05604175546833</v>
+        <v>1.033217805296734</v>
       </c>
       <c r="K12">
-        <v>1.060105890867979</v>
+        <v>1.040181738728397</v>
       </c>
       <c r="L12">
-        <v>1.06029384404568</v>
+        <v>1.034369897304865</v>
       </c>
       <c r="M12">
-        <v>1.07096670711974</v>
+        <v>1.042479014268864</v>
       </c>
       <c r="N12">
-        <v>1.022402557338941</v>
+        <v>1.014276939991573</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.04954592026639</v>
+        <v>1.003852068593196</v>
       </c>
       <c r="D13">
-        <v>1.056612722746936</v>
+        <v>1.025751890285391</v>
       </c>
       <c r="E13">
-        <v>1.05680557569982</v>
+        <v>1.019848286497805</v>
       </c>
       <c r="F13">
-        <v>1.067520617435749</v>
+        <v>1.028125406040416</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04617145367306</v>
+        <v>1.046943838210685</v>
       </c>
       <c r="J13">
-        <v>1.05607711112173</v>
+        <v>1.033402263730402</v>
       </c>
       <c r="K13">
-        <v>1.060139602679075</v>
+        <v>1.040359377846308</v>
       </c>
       <c r="L13">
-        <v>1.060331764075522</v>
+        <v>1.034562062466365</v>
       </c>
       <c r="M13">
-        <v>1.071008815178265</v>
+        <v>1.04269060727746</v>
       </c>
       <c r="N13">
-        <v>1.022414618989709</v>
+        <v>1.014340615434709</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.049721744812598</v>
+        <v>1.004794769523533</v>
       </c>
       <c r="D14">
-        <v>1.056754585995173</v>
+        <v>1.026484129067677</v>
       </c>
       <c r="E14">
-        <v>1.056961281855801</v>
+        <v>1.020630323768936</v>
       </c>
       <c r="F14">
-        <v>1.067689731070988</v>
+        <v>1.028970127800121</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046220609023955</v>
+        <v>1.047260439549092</v>
       </c>
       <c r="J14">
-        <v>1.056192951025243</v>
+        <v>1.034004803044926</v>
       </c>
       <c r="K14">
-        <v>1.060250053760093</v>
+        <v>1.040939636548551</v>
       </c>
       <c r="L14">
-        <v>1.060456015559858</v>
+        <v>1.035189867622634</v>
       </c>
       <c r="M14">
-        <v>1.071146793478945</v>
+        <v>1.043381917013527</v>
       </c>
       <c r="N14">
-        <v>1.02245413466923</v>
+        <v>1.014548606966294</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.049830086845388</v>
+        <v>1.005373453643103</v>
       </c>
       <c r="D15">
-        <v>1.056842002458454</v>
+        <v>1.026933749871884</v>
       </c>
       <c r="E15">
-        <v>1.05705723602564</v>
+        <v>1.021110573418037</v>
       </c>
       <c r="F15">
-        <v>1.067793949033976</v>
+        <v>1.029488873428781</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046250871904314</v>
+        <v>1.047454607257477</v>
       </c>
       <c r="J15">
-        <v>1.056264319577012</v>
+        <v>1.034374639692141</v>
       </c>
       <c r="K15">
-        <v>1.060318100050159</v>
+        <v>1.041295793318096</v>
       </c>
       <c r="L15">
-        <v>1.060532573812395</v>
+        <v>1.03557528230214</v>
       </c>
       <c r="M15">
-        <v>1.071231812664867</v>
+        <v>1.04380634337956</v>
       </c>
       <c r="N15">
-        <v>1.02247847758671</v>
+        <v>1.014676266502687</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.050460847743304</v>
+        <v>1.008709586164264</v>
       </c>
       <c r="D16">
-        <v>1.057350953462256</v>
+        <v>1.029527747312646</v>
       </c>
       <c r="E16">
-        <v>1.057616012016641</v>
+        <v>1.023882057724294</v>
       </c>
       <c r="F16">
-        <v>1.068400869705843</v>
+        <v>1.032482540387007</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046426658086957</v>
+        <v>1.048571217068583</v>
       </c>
       <c r="J16">
-        <v>1.05667965022939</v>
+        <v>1.03650616410747</v>
       </c>
       <c r="K16">
-        <v>1.060714062657721</v>
+        <v>1.043348404019836</v>
       </c>
       <c r="L16">
-        <v>1.060978218303626</v>
+        <v>1.037797646839148</v>
       </c>
       <c r="M16">
-        <v>1.071726755123394</v>
+        <v>1.046254044990313</v>
       </c>
       <c r="N16">
-        <v>1.022620102623535</v>
+        <v>1.015411940654104</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.05085665097487</v>
+        <v>1.010774748966148</v>
       </c>
       <c r="D17">
-        <v>1.057670335766647</v>
+        <v>1.031135128727065</v>
       </c>
       <c r="E17">
-        <v>1.057966764352869</v>
+        <v>1.025600114177934</v>
       </c>
       <c r="F17">
-        <v>1.068781862281026</v>
+        <v>1.034338355578103</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046536609515034</v>
+        <v>1.04925995711116</v>
       </c>
       <c r="J17">
-        <v>1.056940118261418</v>
+        <v>1.037825074881744</v>
       </c>
       <c r="K17">
-        <v>1.060962354234045</v>
+        <v>1.044618414687303</v>
       </c>
       <c r="L17">
-        <v>1.061257796031699</v>
+        <v>1.039173691122068</v>
       </c>
       <c r="M17">
-        <v>1.072037301609721</v>
+        <v>1.04776995460166</v>
       </c>
       <c r="N17">
-        <v>1.022708886055279</v>
+        <v>1.015867071399952</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.051087567903972</v>
+        <v>1.011969691874956</v>
       </c>
       <c r="D18">
-        <v>1.05785667287675</v>
+        <v>1.032065750236365</v>
       </c>
       <c r="E18">
-        <v>1.058171440928901</v>
+        <v>1.026595066845489</v>
       </c>
       <c r="F18">
-        <v>1.069004192013359</v>
+        <v>1.035413097753188</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046600628829642</v>
+        <v>1.049657569355808</v>
       </c>
       <c r="J18">
-        <v>1.057092023781227</v>
+        <v>1.038588002585805</v>
       </c>
       <c r="K18">
-        <v>1.061107147541863</v>
+        <v>1.045353026903887</v>
       </c>
       <c r="L18">
-        <v>1.061420881980791</v>
+        <v>1.03996999970555</v>
       </c>
       <c r="M18">
-        <v>1.072218467461908</v>
+        <v>1.048647324981894</v>
       </c>
       <c r="N18">
-        <v>1.022760652291314</v>
+        <v>1.016130312485203</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.051166313348027</v>
+        <v>1.012375528640509</v>
       </c>
       <c r="D19">
-        <v>1.057920216926553</v>
+        <v>1.032381908620624</v>
       </c>
       <c r="E19">
-        <v>1.058241245362738</v>
+        <v>1.026933123771801</v>
       </c>
       <c r="F19">
-        <v>1.069080018182389</v>
+        <v>1.035778266991816</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046622438500181</v>
+        <v>1.049792454716147</v>
       </c>
       <c r="J19">
-        <v>1.057143816043544</v>
+        <v>1.038847075919958</v>
       </c>
       <c r="K19">
-        <v>1.061156513044101</v>
+        <v>1.045602479671047</v>
       </c>
       <c r="L19">
-        <v>1.061476492255592</v>
+        <v>1.040240464640506</v>
       </c>
       <c r="M19">
-        <v>1.072280245287127</v>
+        <v>1.04894534320099</v>
       </c>
       <c r="N19">
-        <v>1.022778299899674</v>
+        <v>1.016219697896536</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.05081417969334</v>
+        <v>1.010554178969224</v>
       </c>
       <c r="D20">
-        <v>1.057636064218467</v>
+        <v>1.030963393527693</v>
       </c>
       <c r="E20">
-        <v>1.057929122767769</v>
+        <v>1.025416528028453</v>
       </c>
       <c r="F20">
-        <v>1.068740974700756</v>
+        <v>1.034140047824116</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04652482450388</v>
+        <v>1.049186489791129</v>
       </c>
       <c r="J20">
-        <v>1.056912174682012</v>
+        <v>1.037684230842798</v>
       </c>
       <c r="K20">
-        <v>1.060935718095781</v>
+        <v>1.044482795540524</v>
       </c>
       <c r="L20">
-        <v>1.06122779863828</v>
+        <v>1.039026711444852</v>
       </c>
       <c r="M20">
-        <v>1.07200397986981</v>
+        <v>1.047608022742209</v>
       </c>
       <c r="N20">
-        <v>1.022699362462234</v>
+        <v>1.015818471948833</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.049669966630558</v>
+        <v>1.004517616147601</v>
       </c>
       <c r="D21">
-        <v>1.056712808753988</v>
+        <v>1.026268824030754</v>
       </c>
       <c r="E21">
-        <v>1.056915426424622</v>
+        <v>1.020400365574466</v>
       </c>
       <c r="F21">
-        <v>1.067639926845778</v>
+        <v>1.028721736941058</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046206138862747</v>
+        <v>1.047167396556234</v>
       </c>
       <c r="J21">
-        <v>1.056158839942195</v>
+        <v>1.033827664492082</v>
       </c>
       <c r="K21">
-        <v>1.060217529973809</v>
+        <v>1.040769049037033</v>
       </c>
       <c r="L21">
-        <v>1.060419426007408</v>
+        <v>1.035005286641853</v>
       </c>
       <c r="M21">
-        <v>1.071106161015093</v>
+        <v>1.043178659685138</v>
       </c>
       <c r="N21">
-        <v>1.022442499118591</v>
+        <v>1.014487461244431</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.048951022459842</v>
+        <v>1.000629248300723</v>
       </c>
       <c r="D22">
-        <v>1.056132749971592</v>
+        <v>1.023250584806419</v>
       </c>
       <c r="E22">
-        <v>1.056278880873505</v>
+        <v>1.017177619715896</v>
       </c>
       <c r="F22">
-        <v>1.066948591020991</v>
+        <v>1.025240687678425</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046004748582103</v>
+        <v>1.045858812514293</v>
       </c>
       <c r="J22">
-        <v>1.055685003019493</v>
+        <v>1.031341847707727</v>
       </c>
       <c r="K22">
-        <v>1.059765702427745</v>
+        <v>1.038375098440847</v>
       </c>
       <c r="L22">
-        <v>1.059911292231849</v>
+        <v>1.032416296143194</v>
       </c>
       <c r="M22">
-        <v>1.070541936741418</v>
+        <v>1.040328174021078</v>
       </c>
       <c r="N22">
-        <v>1.022280824174124</v>
+        <v>1.013629308469408</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.049332103854059</v>
+        <v>1.002699668055383</v>
       </c>
       <c r="D23">
-        <v>1.056440209152786</v>
+        <v>1.024857127730971</v>
       </c>
       <c r="E23">
-        <v>1.056616249028372</v>
+        <v>1.018892809112348</v>
       </c>
       <c r="F23">
-        <v>1.067314992104459</v>
+        <v>1.027093345362146</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046111605940395</v>
+        <v>1.046556325084046</v>
       </c>
       <c r="J23">
-        <v>1.055936210303818</v>
+        <v>1.032665596751999</v>
       </c>
       <c r="K23">
-        <v>1.060005250512515</v>
+        <v>1.039649940934103</v>
       </c>
       <c r="L23">
-        <v>1.060180651728701</v>
+        <v>1.033794695240022</v>
       </c>
       <c r="M23">
-        <v>1.070841016825232</v>
+        <v>1.041845688033637</v>
       </c>
       <c r="N23">
-        <v>1.022366547582616</v>
+        <v>1.014086311250196</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.050833370477834</v>
+        <v>1.010653874756417</v>
       </c>
       <c r="D24">
-        <v>1.057651549911308</v>
+        <v>1.031041014666551</v>
       </c>
       <c r="E24">
-        <v>1.057946131105896</v>
+        <v>1.02549950478986</v>
       </c>
       <c r="F24">
-        <v>1.068759449719459</v>
+        <v>1.0342296783802</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046530149993826</v>
+        <v>1.049219699216099</v>
       </c>
       <c r="J24">
-        <v>1.056924801247872</v>
+        <v>1.037747891850485</v>
       </c>
       <c r="K24">
-        <v>1.060947753915843</v>
+        <v>1.044544095006444</v>
       </c>
       <c r="L24">
-        <v>1.061241353129043</v>
+        <v>1.039093144710524</v>
       </c>
       <c r="M24">
-        <v>1.072019036439146</v>
+        <v>1.047681213856741</v>
       </c>
       <c r="N24">
-        <v>1.022703665824691</v>
+        <v>1.015840438824412</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.052577529347698</v>
+        <v>1.019509078078407</v>
       </c>
       <c r="D25">
-        <v>1.059059076302033</v>
+        <v>1.037946699756426</v>
       </c>
       <c r="E25">
-        <v>1.05949286011744</v>
+        <v>1.032887184768366</v>
       </c>
       <c r="F25">
-        <v>1.070439707437744</v>
+        <v>1.042210059512363</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047011393645549</v>
+        <v>1.052149701924856</v>
       </c>
       <c r="J25">
-        <v>1.058071176882173</v>
+        <v>1.043397260712879</v>
       </c>
       <c r="K25">
-        <v>1.062040259288155</v>
+        <v>1.049983176561691</v>
       </c>
       <c r="L25">
-        <v>1.062472744917157</v>
+        <v>1.044995553263108</v>
       </c>
       <c r="M25">
-        <v>1.07338721056367</v>
+        <v>1.054186641533921</v>
       </c>
       <c r="N25">
-        <v>1.02309410129297</v>
+        <v>1.017789084820071</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_52/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.026298646918087</v>
+        <v>1.007167196092453</v>
       </c>
       <c r="D2">
-        <v>1.04325607464542</v>
+        <v>1.026266549765444</v>
       </c>
       <c r="E2">
-        <v>1.038575414773567</v>
+        <v>1.022726398582491</v>
       </c>
       <c r="F2">
-        <v>1.048355194859941</v>
+        <v>1.034379157664739</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054366580824043</v>
+        <v>1.051204731592619</v>
       </c>
       <c r="J2">
-        <v>1.04772024707166</v>
+        <v>1.029135630575772</v>
       </c>
       <c r="K2">
-        <v>1.054143964192667</v>
+        <v>1.037371687529072</v>
       </c>
       <c r="L2">
-        <v>1.049522271196915</v>
+        <v>1.0338779439711</v>
       </c>
       <c r="M2">
-        <v>1.059179592008933</v>
+        <v>1.045379445377979</v>
       </c>
       <c r="N2">
-        <v>1.019278987930558</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.013257242740481</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.044487166760767</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.037495285114439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031083069152914</v>
+        <v>1.011626661802308</v>
       </c>
       <c r="D3">
-        <v>1.047004734919377</v>
+        <v>1.0292281067162</v>
       </c>
       <c r="E3">
-        <v>1.042596546944649</v>
+        <v>1.02620586298356</v>
       </c>
       <c r="F3">
-        <v>1.052699727394154</v>
+        <v>1.037584917583107</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055910851937812</v>
+        <v>1.052284038886831</v>
       </c>
       <c r="J3">
-        <v>1.050760808326469</v>
+        <v>1.031805313416766</v>
       </c>
       <c r="K3">
-        <v>1.057069534214192</v>
+        <v>1.039500183351265</v>
       </c>
       <c r="L3">
-        <v>1.052711932006605</v>
+        <v>1.036514065134489</v>
       </c>
       <c r="M3">
-        <v>1.062699947139337</v>
+        <v>1.047758458797622</v>
       </c>
       <c r="N3">
-        <v>1.02032606611838</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.014184531012112</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.04636998361617</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.038997654773594</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.034115595179875</v>
+        <v>1.014454774056229</v>
       </c>
       <c r="D4">
-        <v>1.049383786401759</v>
+        <v>1.031108218499324</v>
       </c>
       <c r="E4">
-        <v>1.045150888819924</v>
+        <v>1.028418774799364</v>
       </c>
       <c r="F4">
-        <v>1.055459717391519</v>
+        <v>1.039625871935482</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056881138011122</v>
+        <v>1.052955275546243</v>
       </c>
       <c r="J4">
-        <v>1.052685125063466</v>
+        <v>1.033495815838604</v>
       </c>
       <c r="K4">
-        <v>1.058920602102954</v>
+        <v>1.040845150159057</v>
       </c>
       <c r="L4">
-        <v>1.054733290535503</v>
+        <v>1.038185894923911</v>
       </c>
       <c r="M4">
-        <v>1.064931880511994</v>
+        <v>1.049268460850111</v>
       </c>
       <c r="N4">
-        <v>1.02098831214611</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.014771528201763</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.047565038400545</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.03994956037685</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035375864802645</v>
+        <v>1.015634479462945</v>
       </c>
       <c r="D5">
-        <v>1.050373159223592</v>
+        <v>1.031894865904075</v>
       </c>
       <c r="E5">
-        <v>1.046213736952827</v>
+        <v>1.029343650495441</v>
       </c>
       <c r="F5">
-        <v>1.056608190129504</v>
+        <v>1.040478487818895</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057282293162701</v>
+        <v>1.053233415260642</v>
       </c>
       <c r="J5">
-        <v>1.05348411190073</v>
+        <v>1.034201866431159</v>
       </c>
       <c r="K5">
-        <v>1.059689054596657</v>
+        <v>1.041407660374707</v>
       </c>
       <c r="L5">
-        <v>1.055573212095279</v>
+        <v>1.038884311764062</v>
       </c>
       <c r="M5">
-        <v>1.065859542678013</v>
+        <v>1.049898752784699</v>
       </c>
       <c r="N5">
-        <v>1.021263170759589</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.01501756482255</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.048063867211654</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.04035447029919</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.035586628783243</v>
+        <v>1.015836720498347</v>
       </c>
       <c r="D6">
-        <v>1.050538657569686</v>
+        <v>1.032032142246496</v>
       </c>
       <c r="E6">
-        <v>1.046391560169477</v>
+        <v>1.02950268572899</v>
       </c>
       <c r="F6">
-        <v>1.056800342423082</v>
+        <v>1.040624050614702</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057349257939231</v>
+        <v>1.053282582687705</v>
       </c>
       <c r="J6">
-        <v>1.05361768841321</v>
+        <v>1.03432473146835</v>
       </c>
       <c r="K6">
-        <v>1.059817518974633</v>
+        <v>1.04150729260384</v>
       </c>
       <c r="L6">
-        <v>1.055713669935131</v>
+        <v>1.039005337344616</v>
       </c>
       <c r="M6">
-        <v>1.066014687375076</v>
+        <v>1.050007008506031</v>
       </c>
       <c r="N6">
-        <v>1.021309115654656</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.015061497943525</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.048149543464976</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.040433658357649</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.034132491636665</v>
+        <v>1.014483854272464</v>
       </c>
       <c r="D7">
-        <v>1.049397048330249</v>
+        <v>1.031134001597686</v>
       </c>
       <c r="E7">
-        <v>1.045165133346461</v>
+        <v>1.028442651594015</v>
       </c>
       <c r="F7">
-        <v>1.055475109253617</v>
+        <v>1.039644972076154</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056886524568706</v>
+        <v>1.05296662299531</v>
       </c>
       <c r="J7">
-        <v>1.052695840017149</v>
+        <v>1.033518222552737</v>
       </c>
       <c r="K7">
-        <v>1.058930908058505</v>
+        <v>1.040867764431755</v>
       </c>
       <c r="L7">
-        <v>1.054744551913024</v>
+        <v>1.038206612424025</v>
       </c>
       <c r="M7">
-        <v>1.064944317329188</v>
+        <v>1.049284502600648</v>
       </c>
       <c r="N7">
-        <v>1.020991998626989</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.014782398386951</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.047577734247562</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.039985656609597</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027929016947627</v>
+        <v>1.008703087272136</v>
       </c>
       <c r="D8">
-        <v>1.044532826673144</v>
+        <v>1.027293925847834</v>
       </c>
       <c r="E8">
-        <v>1.03994447706711</v>
+        <v>1.023924911901241</v>
       </c>
       <c r="F8">
-        <v>1.049834321783832</v>
+        <v>1.03547923924706</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054894582363428</v>
+        <v>1.051584573065529</v>
       </c>
       <c r="J8">
-        <v>1.048756952953051</v>
+        <v>1.030061808746605</v>
       </c>
       <c r="K8">
-        <v>1.055141557413518</v>
+        <v>1.038116452325822</v>
       </c>
       <c r="L8">
-        <v>1.050609251048711</v>
+        <v>1.034790271060866</v>
       </c>
       <c r="M8">
-        <v>1.060379055691905</v>
+        <v>1.046199146566674</v>
       </c>
       <c r="N8">
-        <v>1.019636085068078</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.013583021542752</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.045135901442066</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.038044827721043</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.016486408847464</v>
+        <v>0.9980328119336254</v>
       </c>
       <c r="D9">
-        <v>1.035587023590292</v>
+        <v>1.02021399488899</v>
       </c>
       <c r="E9">
-        <v>1.030361532019181</v>
+        <v>1.01563653072152</v>
       </c>
       <c r="F9">
-        <v>1.039481703642129</v>
+        <v>1.027858956610583</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051154140887823</v>
+        <v>1.048923653327095</v>
       </c>
       <c r="J9">
-        <v>1.041470126723265</v>
+        <v>1.023655228440508</v>
       </c>
       <c r="K9">
-        <v>1.048127955843562</v>
+        <v>1.032987411496532</v>
       </c>
       <c r="L9">
-        <v>1.042980497965651</v>
+        <v>1.02848090980463</v>
       </c>
       <c r="M9">
-        <v>1.051965123541164</v>
+        <v>1.040515652113927</v>
       </c>
       <c r="N9">
-        <v>1.017124532139569</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.011353441195069</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.040637811461472</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.034415050658306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.008474879646473</v>
+        <v>0.9906647115863448</v>
       </c>
       <c r="D10">
-        <v>1.02934514586544</v>
+        <v>1.015348642123512</v>
       </c>
       <c r="E10">
-        <v>1.023686917710422</v>
+        <v>1.010000302155647</v>
       </c>
       <c r="F10">
-        <v>1.032271754899637</v>
+        <v>1.022750194469592</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048492819103869</v>
+        <v>1.047040858826346</v>
       </c>
       <c r="J10">
-        <v>1.036356240658401</v>
+        <v>1.019253670936001</v>
       </c>
       <c r="K10">
-        <v>1.04320403543695</v>
+        <v>1.029446193778806</v>
       </c>
       <c r="L10">
-        <v>1.037641274231846</v>
+        <v>1.0241913154071</v>
       </c>
       <c r="M10">
-        <v>1.046081794918265</v>
+        <v>1.036720487212732</v>
       </c>
       <c r="N10">
-        <v>1.015360200964856</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.009835850772074</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.037685675100446</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.031928040003981</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.004905356730134</v>
+        <v>0.9880868163354928</v>
       </c>
       <c r="D11">
-        <v>1.026570044467715</v>
+        <v>1.013697803026404</v>
       </c>
       <c r="E11">
-        <v>1.020722088847152</v>
+        <v>1.008422659035491</v>
       </c>
       <c r="F11">
-        <v>1.029069248522336</v>
+        <v>1.021815323170126</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047297555913633</v>
+        <v>1.04652229472291</v>
       </c>
       <c r="J11">
-        <v>1.034075481457753</v>
+        <v>1.017963735295987</v>
       </c>
       <c r="K11">
-        <v>1.041007700889558</v>
+        <v>1.028365940902031</v>
       </c>
       <c r="L11">
-        <v>1.035263518978813</v>
+        <v>1.023187465347206</v>
       </c>
       <c r="M11">
-        <v>1.043463021844216</v>
+        <v>1.036337236345264</v>
       </c>
       <c r="N11">
-        <v>1.014573003910693</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.009508864056037</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.037818915387859</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.031197250893242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.003563497111695</v>
+        <v>0.9873585066048811</v>
       </c>
       <c r="D12">
-        <v>1.025527796483846</v>
+        <v>1.013244479493636</v>
       </c>
       <c r="E12">
-        <v>1.019608972639915</v>
+        <v>1.008148150216632</v>
       </c>
       <c r="F12">
-        <v>1.027866910406207</v>
+        <v>1.021933017580583</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046846851079051</v>
+        <v>1.046437362101863</v>
       </c>
       <c r="J12">
-        <v>1.033217805296734</v>
+        <v>1.017707683248641</v>
       </c>
       <c r="K12">
-        <v>1.040181738728397</v>
+        <v>1.028122260312029</v>
       </c>
       <c r="L12">
-        <v>1.034369897304865</v>
+        <v>1.023120891928024</v>
       </c>
       <c r="M12">
-        <v>1.042479014268864</v>
+        <v>1.036651743094227</v>
       </c>
       <c r="N12">
-        <v>1.014276939991573</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.009511270742732</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.038394205987314</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.031024959171982</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.003852068593196</v>
+        <v>0.9880250389409668</v>
       </c>
       <c r="D13">
-        <v>1.025751890285391</v>
+        <v>1.01370269466949</v>
       </c>
       <c r="E13">
-        <v>1.019848286497805</v>
+        <v>1.008876550806217</v>
       </c>
       <c r="F13">
-        <v>1.028125406040416</v>
+        <v>1.022893952475936</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046943838210685</v>
+        <v>1.046696542295046</v>
       </c>
       <c r="J13">
-        <v>1.033402263730402</v>
+        <v>1.01825048153616</v>
       </c>
       <c r="K13">
-        <v>1.040359377846308</v>
+        <v>1.028528829643292</v>
       </c>
       <c r="L13">
-        <v>1.034562062466365</v>
+        <v>1.023792173765266</v>
       </c>
       <c r="M13">
-        <v>1.04269060727746</v>
+        <v>1.037552695205614</v>
       </c>
       <c r="N13">
-        <v>1.014340615434709</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.009778296959253</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.039383250861865</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.031309914433858</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.004794769523533</v>
+        <v>0.9891198701930033</v>
       </c>
       <c r="D14">
-        <v>1.026484129067677</v>
+        <v>1.014434957067829</v>
       </c>
       <c r="E14">
-        <v>1.020630323768936</v>
+        <v>1.009835018807965</v>
       </c>
       <c r="F14">
-        <v>1.028970127800121</v>
+        <v>1.023942659236844</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047260439549092</v>
+        <v>1.047032223561828</v>
       </c>
       <c r="J14">
-        <v>1.034004803044926</v>
+        <v>1.01898869830666</v>
       </c>
       <c r="K14">
-        <v>1.040939636548551</v>
+        <v>1.029106309405109</v>
       </c>
       <c r="L14">
-        <v>1.035189867622634</v>
+        <v>1.024590543078649</v>
       </c>
       <c r="M14">
-        <v>1.043381917013527</v>
+        <v>1.038443145231225</v>
       </c>
       <c r="N14">
-        <v>1.014548606966294</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.010083734412113</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.040260410561502</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.031719647077006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.005373453643103</v>
+        <v>0.9896987036627816</v>
       </c>
       <c r="D15">
-        <v>1.026933749871884</v>
+        <v>1.014820367964296</v>
       </c>
       <c r="E15">
-        <v>1.021110573418037</v>
+        <v>1.010300793015648</v>
       </c>
       <c r="F15">
-        <v>1.029488873428781</v>
+        <v>1.024403048100282</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047454607257477</v>
+        <v>1.0471944445812</v>
       </c>
       <c r="J15">
-        <v>1.034374639692141</v>
+        <v>1.019352672713621</v>
       </c>
       <c r="K15">
-        <v>1.041295793318096</v>
+        <v>1.029397697138831</v>
       </c>
       <c r="L15">
-        <v>1.03557528230214</v>
+        <v>1.024960168047821</v>
       </c>
       <c r="M15">
-        <v>1.04380634337956</v>
+        <v>1.038809523147174</v>
       </c>
       <c r="N15">
-        <v>1.014676266502687</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.010220621846559</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.040587517098565</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.031931567816903</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.008709586164264</v>
+        <v>0.9926953357211435</v>
       </c>
       <c r="D16">
-        <v>1.029527747312646</v>
+        <v>1.016797669995728</v>
       </c>
       <c r="E16">
-        <v>1.023882057724294</v>
+        <v>1.012554964338908</v>
       </c>
       <c r="F16">
-        <v>1.032482540387007</v>
+        <v>1.026421121329433</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048571217068583</v>
+        <v>1.047963024707918</v>
       </c>
       <c r="J16">
-        <v>1.03650616410747</v>
+        <v>1.021124073843577</v>
       </c>
       <c r="K16">
-        <v>1.043348404019836</v>
+        <v>1.030834311902185</v>
       </c>
       <c r="L16">
-        <v>1.037797646839148</v>
+        <v>1.026665152534684</v>
       </c>
       <c r="M16">
-        <v>1.046254044990313</v>
+        <v>1.040293849384358</v>
       </c>
       <c r="N16">
-        <v>1.015411940654104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.010816007463384</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.04172203479502</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.032950489924472</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.010774748966148</v>
+        <v>0.9944233765990368</v>
       </c>
       <c r="D17">
-        <v>1.031135128727065</v>
+        <v>1.017933705164548</v>
       </c>
       <c r="E17">
-        <v>1.025600114177934</v>
+        <v>1.013785180152291</v>
       </c>
       <c r="F17">
-        <v>1.034338355578103</v>
+        <v>1.02741585562682</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04925995711116</v>
+        <v>1.048374287076727</v>
       </c>
       <c r="J17">
-        <v>1.037825074881744</v>
+        <v>1.022097555944544</v>
       </c>
       <c r="K17">
-        <v>1.044618414687303</v>
+        <v>1.03163443217688</v>
       </c>
       <c r="L17">
-        <v>1.039173691122068</v>
+        <v>1.027555746634286</v>
       </c>
       <c r="M17">
-        <v>1.04776995460166</v>
+        <v>1.040959675120862</v>
       </c>
       <c r="N17">
-        <v>1.015867071399952</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.011113412994989</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.042119395916241</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.03351880310328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.011969691874956</v>
+        <v>0.9951996740570783</v>
       </c>
       <c r="D18">
-        <v>1.032065750236365</v>
+        <v>1.018428846416782</v>
       </c>
       <c r="E18">
-        <v>1.026595066845489</v>
+        <v>1.014204566432594</v>
       </c>
       <c r="F18">
-        <v>1.035413097753188</v>
+        <v>1.02755357110088</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049657569355808</v>
+        <v>1.048503060517568</v>
       </c>
       <c r="J18">
-        <v>1.038588002585805</v>
+        <v>1.022445266648715</v>
       </c>
       <c r="K18">
-        <v>1.045353026903887</v>
+        <v>1.031936879453218</v>
       </c>
       <c r="L18">
-        <v>1.03996999970555</v>
+        <v>1.02778253379933</v>
       </c>
       <c r="M18">
-        <v>1.048647324981894</v>
+        <v>1.040913059421388</v>
       </c>
       <c r="N18">
-        <v>1.016130312485203</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.0111666675826</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.041845079566159</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.033720965649888</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.012375528640509</v>
+        <v>0.9951174153092666</v>
       </c>
       <c r="D19">
-        <v>1.032381908620624</v>
+        <v>1.018352134065189</v>
       </c>
       <c r="E19">
-        <v>1.026933123771801</v>
+        <v>1.013882737277754</v>
       </c>
       <c r="F19">
-        <v>1.035778266991816</v>
+        <v>1.026901043620994</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049792454716147</v>
+        <v>1.048381441812517</v>
       </c>
       <c r="J19">
-        <v>1.038847075919958</v>
+        <v>1.022230444153495</v>
       </c>
       <c r="K19">
-        <v>1.045602479671047</v>
+        <v>1.031798544067506</v>
       </c>
       <c r="L19">
-        <v>1.040240464640506</v>
+        <v>1.027402781403954</v>
       </c>
       <c r="M19">
-        <v>1.04894534320099</v>
+        <v>1.04020889885064</v>
       </c>
       <c r="N19">
-        <v>1.016219697896536</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.011008824417218</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.040963060235962</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.033629575209648</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.010554178969224</v>
+        <v>0.9926139183600632</v>
       </c>
       <c r="D20">
-        <v>1.030963393527693</v>
+        <v>1.016649838875598</v>
       </c>
       <c r="E20">
-        <v>1.025416528028453</v>
+        <v>1.01149448894176</v>
       </c>
       <c r="F20">
-        <v>1.034140047824116</v>
+        <v>1.024099212100811</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049186489791129</v>
+        <v>1.047554450713674</v>
       </c>
       <c r="J20">
-        <v>1.037684230842798</v>
+        <v>1.02043256046226</v>
       </c>
       <c r="K20">
-        <v>1.044482795540524</v>
+        <v>1.030406105428074</v>
       </c>
       <c r="L20">
-        <v>1.039026711444852</v>
+        <v>1.025338188606455</v>
       </c>
       <c r="M20">
-        <v>1.047608022742209</v>
+        <v>1.037731141018605</v>
       </c>
       <c r="N20">
-        <v>1.015818471948833</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.010252267118915</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.038474942834928</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.032649001886058</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.004517616147601</v>
+        <v>0.9869279036938871</v>
       </c>
       <c r="D21">
-        <v>1.026268824030754</v>
+        <v>1.012889866240704</v>
       </c>
       <c r="E21">
-        <v>1.020400365574466</v>
+        <v>1.007084319339938</v>
       </c>
       <c r="F21">
-        <v>1.028721736941058</v>
+        <v>1.020011350592372</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047167396556234</v>
+        <v>1.04604781348469</v>
       </c>
       <c r="J21">
-        <v>1.033827664492082</v>
+        <v>1.016982516578457</v>
       </c>
       <c r="K21">
-        <v>1.040769049037033</v>
+        <v>1.027631083001373</v>
       </c>
       <c r="L21">
-        <v>1.035005286641853</v>
+        <v>1.021932708706037</v>
       </c>
       <c r="M21">
-        <v>1.043178659685138</v>
+        <v>1.034623267200067</v>
       </c>
       <c r="N21">
-        <v>1.014487461244431</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.009040119699764</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.0359743696024</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.03069019581585</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.000629248300723</v>
+        <v>0.9832981238960159</v>
       </c>
       <c r="D22">
-        <v>1.023250584806419</v>
+        <v>1.010491277942838</v>
       </c>
       <c r="E22">
-        <v>1.017177619715896</v>
+        <v>1.004300891183199</v>
       </c>
       <c r="F22">
-        <v>1.025240687678425</v>
+        <v>1.017468514216856</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045858812514293</v>
+        <v>1.045078860912569</v>
       </c>
       <c r="J22">
-        <v>1.031341847707727</v>
+        <v>1.014789294336568</v>
       </c>
       <c r="K22">
-        <v>1.038375098440847</v>
+        <v>1.025857726725847</v>
       </c>
       <c r="L22">
-        <v>1.032416296143194</v>
+        <v>1.019787625368177</v>
       </c>
       <c r="M22">
-        <v>1.040328174021078</v>
+        <v>1.032701681635107</v>
       </c>
       <c r="N22">
-        <v>1.013629308469408</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.008272214510135</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.034453552204197</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.029422765383589</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.002699668055383</v>
+        <v>0.985217932569688</v>
       </c>
       <c r="D23">
-        <v>1.024857127730971</v>
+        <v>1.011754066872337</v>
       </c>
       <c r="E23">
-        <v>1.018892809112348</v>
+        <v>1.005770671735326</v>
       </c>
       <c r="F23">
-        <v>1.027093345362146</v>
+        <v>1.018813829055712</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046556325084046</v>
+        <v>1.045589117030939</v>
       </c>
       <c r="J23">
-        <v>1.032665596751999</v>
+        <v>1.015944979001798</v>
       </c>
       <c r="K23">
-        <v>1.039649940934103</v>
+        <v>1.026788711224556</v>
       </c>
       <c r="L23">
-        <v>1.033794695240022</v>
+        <v>1.020918487718514</v>
       </c>
       <c r="M23">
-        <v>1.041845688033637</v>
+        <v>1.033717170701864</v>
       </c>
       <c r="N23">
-        <v>1.014086311250196</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.008673346936602</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.035257250073169</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.030071323803785</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.010653874756417</v>
+        <v>0.9926202537745544</v>
       </c>
       <c r="D24">
-        <v>1.031041014666551</v>
+        <v>1.016641184403813</v>
       </c>
       <c r="E24">
-        <v>1.02549950478986</v>
+        <v>1.011459516830007</v>
       </c>
       <c r="F24">
-        <v>1.0342296783802</v>
+        <v>1.024022775192181</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049219699216099</v>
+        <v>1.047535818711678</v>
       </c>
       <c r="J24">
-        <v>1.037747891850485</v>
+        <v>1.020405370584204</v>
       </c>
       <c r="K24">
-        <v>1.044544095006444</v>
+        <v>1.030382231457649</v>
       </c>
       <c r="L24">
-        <v>1.039093144710524</v>
+        <v>1.025288335368871</v>
       </c>
       <c r="M24">
-        <v>1.047681213856741</v>
+        <v>1.037640760722421</v>
       </c>
       <c r="N24">
-        <v>1.015840438824412</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.01022716854727</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.038362524516641</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.032604597607641</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.019509078078407</v>
+        <v>1.000870746392925</v>
       </c>
       <c r="D25">
-        <v>1.037946699756426</v>
+        <v>1.022104110449748</v>
       </c>
       <c r="E25">
-        <v>1.032887184768366</v>
+        <v>1.0178365901721</v>
       </c>
       <c r="F25">
-        <v>1.042210059512363</v>
+        <v>1.029874719570473</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052149701924856</v>
+        <v>1.049649523296944</v>
       </c>
       <c r="J25">
-        <v>1.043397260712879</v>
+        <v>1.025368841940637</v>
       </c>
       <c r="K25">
-        <v>1.049983176561691</v>
+        <v>1.03436871234231</v>
       </c>
       <c r="L25">
-        <v>1.044995553263108</v>
+        <v>1.030164185154934</v>
       </c>
       <c r="M25">
-        <v>1.054186641533921</v>
+        <v>1.04202631776298</v>
       </c>
       <c r="N25">
-        <v>1.017789084820071</v>
+        <v>1.011955377852984</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.041833400817347</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.035420386815904</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_52/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.007167196092453</v>
+        <v>1.006822189161916</v>
       </c>
       <c r="D2">
-        <v>1.026266549765444</v>
+        <v>1.025461778191957</v>
       </c>
       <c r="E2">
-        <v>1.022726398582491</v>
+        <v>1.022477157826575</v>
       </c>
       <c r="F2">
-        <v>1.034379157664739</v>
+        <v>1.034166721616513</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.051204731592619</v>
+        <v>1.050802220398463</v>
       </c>
       <c r="J2">
-        <v>1.029135630575772</v>
+        <v>1.028800746964781</v>
       </c>
       <c r="K2">
-        <v>1.037371687529072</v>
+        <v>1.036577430399293</v>
       </c>
       <c r="L2">
-        <v>1.0338779439711</v>
+        <v>1.03363198567977</v>
       </c>
       <c r="M2">
-        <v>1.045379445377979</v>
+        <v>1.045169728707376</v>
       </c>
       <c r="N2">
-        <v>1.013257242740481</v>
+        <v>1.01460177486409</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.044487166760767</v>
+        <v>1.044321190969734</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.037495285114439</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.036942462113496</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021758782293409</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.011626661802308</v>
+        <v>1.011022187543476</v>
       </c>
       <c r="D3">
-        <v>1.0292281067162</v>
+        <v>1.028139157483322</v>
       </c>
       <c r="E3">
-        <v>1.02620586298356</v>
+        <v>1.025750278448658</v>
       </c>
       <c r="F3">
-        <v>1.037584917583107</v>
+        <v>1.037228011753061</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.052284038886831</v>
+        <v>1.051737122229003</v>
       </c>
       <c r="J3">
-        <v>1.031805313416766</v>
+        <v>1.031216820858039</v>
       </c>
       <c r="K3">
-        <v>1.039500183351265</v>
+        <v>1.03842422020735</v>
       </c>
       <c r="L3">
-        <v>1.036514065134489</v>
+        <v>1.036063949206414</v>
       </c>
       <c r="M3">
-        <v>1.047758458797622</v>
+        <v>1.047405721102632</v>
       </c>
       <c r="N3">
-        <v>1.014184531012112</v>
+        <v>1.015264344429666</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.04636998361617</v>
+        <v>1.046090817577386</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.038997654773594</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.038245360232769</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022153063490869</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.014454774056229</v>
+        <v>1.013687836272451</v>
       </c>
       <c r="D4">
-        <v>1.031108218499324</v>
+        <v>1.029840364618287</v>
       </c>
       <c r="E4">
-        <v>1.028418774799364</v>
+        <v>1.027833882147764</v>
       </c>
       <c r="F4">
-        <v>1.039625871935482</v>
+        <v>1.039178476567586</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.052955275546243</v>
+        <v>1.052317286514221</v>
       </c>
       <c r="J4">
-        <v>1.033495815838604</v>
+        <v>1.032747770336241</v>
       </c>
       <c r="K4">
-        <v>1.040845150159057</v>
+        <v>1.039591503492356</v>
       </c>
       <c r="L4">
-        <v>1.038185894923911</v>
+        <v>1.037607593341378</v>
       </c>
       <c r="M4">
-        <v>1.049268460850111</v>
+        <v>1.048825973621176</v>
       </c>
       <c r="N4">
-        <v>1.014771528201763</v>
+        <v>1.015684206119344</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.047565038400545</v>
+        <v>1.047214842732619</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.03994956037685</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.039071708439828</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022399784546951</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.015634479462945</v>
+        <v>1.014800070730115</v>
       </c>
       <c r="D5">
-        <v>1.031894865904075</v>
+        <v>1.030552638959884</v>
       </c>
       <c r="E5">
-        <v>1.029343650495441</v>
+        <v>1.028704993020331</v>
       </c>
       <c r="F5">
-        <v>1.040478487818895</v>
+        <v>1.039993490894814</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.053233415260642</v>
+        <v>1.052557525373204</v>
       </c>
       <c r="J5">
-        <v>1.034201866431159</v>
+        <v>1.033387392432685</v>
       </c>
       <c r="K5">
-        <v>1.041407660374707</v>
+        <v>1.040080073392545</v>
       </c>
       <c r="L5">
-        <v>1.038884311764062</v>
+        <v>1.038252656880924</v>
       </c>
       <c r="M5">
-        <v>1.049898752784699</v>
+        <v>1.04941893415424</v>
       </c>
       <c r="N5">
-        <v>1.01501756482255</v>
+        <v>1.01586026572648</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.048063867211654</v>
+        <v>1.047684126769824</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.04035447029919</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.039425048038783</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022503048175473</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015836720498347</v>
+        <v>1.014990560710975</v>
       </c>
       <c r="D6">
-        <v>1.032032142246496</v>
+        <v>1.030677124680343</v>
       </c>
       <c r="E6">
-        <v>1.02950268572899</v>
+        <v>1.028854610395491</v>
       </c>
       <c r="F6">
-        <v>1.040624050614702</v>
+        <v>1.040132485718573</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.053282582687705</v>
+        <v>1.052600169985172</v>
       </c>
       <c r="J6">
-        <v>1.03432473146835</v>
+        <v>1.033498682230097</v>
       </c>
       <c r="K6">
-        <v>1.04150729260384</v>
+        <v>1.040166986729371</v>
       </c>
       <c r="L6">
-        <v>1.039005337344616</v>
+        <v>1.038364334857992</v>
       </c>
       <c r="M6">
-        <v>1.050007008506031</v>
+        <v>1.049520667890497</v>
       </c>
       <c r="N6">
-        <v>1.015061497943525</v>
+        <v>1.015891677927412</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.048149543464976</v>
+        <v>1.047764641404544</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.040433658357649</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.039496113374828</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022522115010653</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.014483854272464</v>
+        <v>1.013725190234202</v>
       </c>
       <c r="D7">
-        <v>1.031134001597686</v>
+        <v>1.02987146687255</v>
       </c>
       <c r="E7">
-        <v>1.028442651594015</v>
+        <v>1.027864549646843</v>
       </c>
       <c r="F7">
-        <v>1.039644972076154</v>
+        <v>1.03920223086667</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.05296662299531</v>
+        <v>1.052331448853112</v>
       </c>
       <c r="J7">
-        <v>1.033518222552737</v>
+        <v>1.032778238522728</v>
       </c>
       <c r="K7">
-        <v>1.040867764431755</v>
+        <v>1.039619371638103</v>
       </c>
       <c r="L7">
-        <v>1.038206612424025</v>
+        <v>1.037635022423601</v>
       </c>
       <c r="M7">
-        <v>1.049284502600648</v>
+        <v>1.04884661661046</v>
       </c>
       <c r="N7">
-        <v>1.014782398386951</v>
+        <v>1.015721366795626</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.047577734247562</v>
+        <v>1.04723118012403</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.039985656609597</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.039113522345933</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022408576415428</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.008703087272136</v>
+        <v>1.008299913917739</v>
       </c>
       <c r="D8">
-        <v>1.027293925847834</v>
+        <v>1.026413405434372</v>
       </c>
       <c r="E8">
-        <v>1.023924911901241</v>
+        <v>1.023630466946322</v>
       </c>
       <c r="F8">
-        <v>1.03547923924706</v>
+        <v>1.03523475989721</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.051584573065529</v>
+        <v>1.051143953507706</v>
       </c>
       <c r="J8">
-        <v>1.030061808746605</v>
+        <v>1.029670062591168</v>
       </c>
       <c r="K8">
-        <v>1.038116452325822</v>
+        <v>1.037247092709523</v>
       </c>
       <c r="L8">
-        <v>1.034790271060866</v>
+        <v>1.034499586334933</v>
       </c>
       <c r="M8">
-        <v>1.046199146566674</v>
+        <v>1.045957702964839</v>
       </c>
       <c r="N8">
-        <v>1.013583021542752</v>
+        <v>1.014924233611092</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.045135901442066</v>
+        <v>1.044944816213309</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.038044827721043</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.037441168455177</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021907618344583</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9980328119336254</v>
+        <v>0.9982695857323447</v>
       </c>
       <c r="D9">
-        <v>1.02021399488899</v>
+        <v>1.020025546051044</v>
       </c>
       <c r="E9">
-        <v>1.01563653072152</v>
+        <v>1.01585064436939</v>
       </c>
       <c r="F9">
-        <v>1.027858956610583</v>
+        <v>1.027970842559183</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048923653327095</v>
+        <v>1.048833809883322</v>
       </c>
       <c r="J9">
-        <v>1.023655228440508</v>
+        <v>1.023883597715457</v>
       </c>
       <c r="K9">
-        <v>1.032987411496532</v>
+        <v>1.032801868050996</v>
       </c>
       <c r="L9">
-        <v>1.02848090980463</v>
+        <v>1.028691685915515</v>
       </c>
       <c r="M9">
-        <v>1.040515652113927</v>
+        <v>1.040625846240207</v>
       </c>
       <c r="N9">
-        <v>1.011353441195069</v>
+        <v>1.013345489383035</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.040637811461472</v>
+        <v>1.040725022702178</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.034415050658306</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.034294632966402</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020942886248057</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9906647115863448</v>
+        <v>0.9914000076332548</v>
       </c>
       <c r="D10">
-        <v>1.015348642123512</v>
+        <v>1.015676437187242</v>
       </c>
       <c r="E10">
-        <v>1.010000302155647</v>
+        <v>1.010610303797821</v>
       </c>
       <c r="F10">
-        <v>1.022750194469592</v>
+        <v>1.023139801551712</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.047040858826346</v>
+        <v>1.047212397282063</v>
       </c>
       <c r="J10">
-        <v>1.019253670936001</v>
+        <v>1.019959039022785</v>
       </c>
       <c r="K10">
-        <v>1.029446193778806</v>
+        <v>1.029768302089379</v>
       </c>
       <c r="L10">
-        <v>1.0241913154071</v>
+        <v>1.024790592571774</v>
       </c>
       <c r="M10">
-        <v>1.036720487212732</v>
+        <v>1.037103461437105</v>
       </c>
       <c r="N10">
-        <v>1.009835850772074</v>
+        <v>1.012399847818033</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.037685675100446</v>
+        <v>1.037988755721895</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.031928040003981</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.03216825658396</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020282851515596</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9880868163354928</v>
+        <v>0.989034673738768</v>
       </c>
       <c r="D11">
-        <v>1.013697803026404</v>
+        <v>1.014232021546779</v>
       </c>
       <c r="E11">
-        <v>1.008422659035491</v>
+        <v>1.00919376899945</v>
       </c>
       <c r="F11">
-        <v>1.021815323170126</v>
+        <v>1.022320179657846</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.04652229472291</v>
+        <v>1.046799803488412</v>
       </c>
       <c r="J11">
-        <v>1.017963735295987</v>
+        <v>1.01887084665865</v>
       </c>
       <c r="K11">
-        <v>1.028365940902031</v>
+        <v>1.02889044267954</v>
       </c>
       <c r="L11">
-        <v>1.023187465347206</v>
+        <v>1.023944362337643</v>
       </c>
       <c r="M11">
-        <v>1.036337236345264</v>
+        <v>1.036833098174277</v>
       </c>
       <c r="N11">
-        <v>1.009508864056037</v>
+        <v>1.012416012746145</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.037818915387859</v>
+        <v>1.038211136157507</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.031197250893242</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.031583781401926</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020145858946568</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9873585066048811</v>
+        <v>0.9883623584802835</v>
       </c>
       <c r="D12">
-        <v>1.013244479493636</v>
+        <v>1.013833588974409</v>
       </c>
       <c r="E12">
-        <v>1.008148150216632</v>
+        <v>1.008956260929346</v>
       </c>
       <c r="F12">
-        <v>1.021933017580583</v>
+        <v>1.022466023144887</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.046437362101863</v>
+        <v>1.046743597750112</v>
       </c>
       <c r="J12">
-        <v>1.017707683248641</v>
+        <v>1.018667543123269</v>
       </c>
       <c r="K12">
-        <v>1.028122260312029</v>
+        <v>1.028700473044907</v>
       </c>
       <c r="L12">
-        <v>1.023120891928024</v>
+        <v>1.02391386141097</v>
       </c>
       <c r="M12">
-        <v>1.036651743094227</v>
+        <v>1.037175105703617</v>
       </c>
       <c r="N12">
-        <v>1.009511270742732</v>
+        <v>1.012522465095076</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.038394205987314</v>
+        <v>1.038808039354444</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.031024959171982</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.03144946840206</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020140458980636</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9880250389409668</v>
+        <v>0.9889505077414495</v>
       </c>
       <c r="D13">
-        <v>1.01370269466949</v>
+        <v>1.014221491496343</v>
       </c>
       <c r="E13">
-        <v>1.008876550806217</v>
+        <v>1.009614827167918</v>
       </c>
       <c r="F13">
-        <v>1.022893952475936</v>
+        <v>1.02338061526796</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.046696542295046</v>
+        <v>1.046967684149123</v>
       </c>
       <c r="J13">
-        <v>1.01825048153616</v>
+        <v>1.019135615428796</v>
       </c>
       <c r="K13">
-        <v>1.028528829643292</v>
+        <v>1.029038072816504</v>
       </c>
       <c r="L13">
-        <v>1.023792173765266</v>
+        <v>1.02451668844186</v>
       </c>
       <c r="M13">
-        <v>1.037552695205614</v>
+        <v>1.038030603752701</v>
       </c>
       <c r="N13">
-        <v>1.009778296959253</v>
+        <v>1.012675177857091</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.039383250861865</v>
+        <v>1.03976104789261</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.031309914433858</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.031685412506895</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.02024160322364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9891198701930033</v>
+        <v>0.9899313496987915</v>
       </c>
       <c r="D14">
-        <v>1.014434957067829</v>
+        <v>1.014849412323165</v>
       </c>
       <c r="E14">
-        <v>1.009835018807965</v>
+        <v>1.010478045987426</v>
       </c>
       <c r="F14">
-        <v>1.023942659236844</v>
+        <v>1.024364602410779</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.047032223561828</v>
+        <v>1.047250688626258</v>
       </c>
       <c r="J14">
-        <v>1.01898869830666</v>
+        <v>1.019765341428141</v>
       </c>
       <c r="K14">
-        <v>1.029106309405109</v>
+        <v>1.029513229506502</v>
       </c>
       <c r="L14">
-        <v>1.024590543078649</v>
+        <v>1.02522174380676</v>
       </c>
       <c r="M14">
-        <v>1.038443145231225</v>
+        <v>1.038857600878074</v>
       </c>
       <c r="N14">
-        <v>1.010083734412113</v>
+        <v>1.012804278406445</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.040260410561502</v>
+        <v>1.04058800257256</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.031719647077006</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.032022929525102</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020360987076803</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9896987036627816</v>
+        <v>0.9904534010231548</v>
       </c>
       <c r="D15">
-        <v>1.014820367964296</v>
+        <v>1.015182215188161</v>
       </c>
       <c r="E15">
-        <v>1.010300793015648</v>
+        <v>1.010897725623402</v>
       </c>
       <c r="F15">
-        <v>1.024403048100282</v>
+        <v>1.024793267954339</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.0471944445812</v>
+        <v>1.047386228349601</v>
       </c>
       <c r="J15">
-        <v>1.019352672713621</v>
+        <v>1.020075265026063</v>
       </c>
       <c r="K15">
-        <v>1.029397697138831</v>
+        <v>1.029753016645924</v>
       </c>
       <c r="L15">
-        <v>1.024960168047821</v>
+        <v>1.025546209544172</v>
       </c>
       <c r="M15">
-        <v>1.038809523147174</v>
+        <v>1.03919287335158</v>
       </c>
       <c r="N15">
-        <v>1.010220621846559</v>
+        <v>1.01285268978938</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.040587517098565</v>
+        <v>1.040890514956331</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.031931567816903</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.032198932620322</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020416629293234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9926953357211435</v>
+        <v>0.9931824207940995</v>
       </c>
       <c r="D16">
-        <v>1.016797669995728</v>
+        <v>1.016904909051084</v>
       </c>
       <c r="E16">
-        <v>1.012554964338908</v>
+        <v>1.012940581734922</v>
       </c>
       <c r="F16">
-        <v>1.026421121329433</v>
+        <v>1.026663652135446</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.047963024707918</v>
+        <v>1.048025224674724</v>
       </c>
       <c r="J16">
-        <v>1.021124073843577</v>
+        <v>1.021591504723802</v>
       </c>
       <c r="K16">
-        <v>1.030834311902185</v>
+        <v>1.030939702277408</v>
       </c>
       <c r="L16">
-        <v>1.026665152534684</v>
+        <v>1.02704405239124</v>
       </c>
       <c r="M16">
-        <v>1.040293849384358</v>
+        <v>1.040532300414932</v>
       </c>
       <c r="N16">
-        <v>1.010816007463384</v>
+        <v>1.013043015018601</v>
       </c>
       <c r="O16">
-        <v>1.03</v>
+        <v>1.029999999999999</v>
       </c>
       <c r="P16">
-        <v>1.04172203479502</v>
+        <v>1.041910510591104</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.032950489924472</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.033041436789976</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020669633225578</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,105 +1369,123 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9944233765990368</v>
+        <v>0.9947765212090522</v>
       </c>
       <c r="D17">
-        <v>1.017933705164548</v>
+        <v>1.017908004498627</v>
       </c>
       <c r="E17">
-        <v>1.013785180152291</v>
+        <v>1.01406737263326</v>
       </c>
       <c r="F17">
-        <v>1.02741585562682</v>
+        <v>1.027584982316466</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.048374287076727</v>
+        <v>1.048368656471105</v>
       </c>
       <c r="J17">
-        <v>1.022097555944544</v>
+        <v>1.022436920546132</v>
       </c>
       <c r="K17">
-        <v>1.03163443217688</v>
+        <v>1.031609161917078</v>
       </c>
       <c r="L17">
-        <v>1.027555746634286</v>
+        <v>1.027833165097844</v>
       </c>
       <c r="M17">
-        <v>1.040959675120862</v>
+        <v>1.041126036943152</v>
       </c>
       <c r="N17">
-        <v>1.011113412994989</v>
+        <v>1.013152007882121</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.042119395916241</v>
+        <v>1.042250904258592</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.03351880310328</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.033517611110783</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020802654560651</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C18">
-        <v>0.9951996740570783</v>
+        <v>0.9955088874916456</v>
       </c>
       <c r="D18">
-        <v>1.018428846416782</v>
+        <v>1.01835448622108</v>
       </c>
       <c r="E18">
-        <v>1.014204566432594</v>
+        <v>1.014456630577651</v>
       </c>
       <c r="F18">
-        <v>1.02755357110088</v>
+        <v>1.027699515861333</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.048503060517568</v>
+        <v>1.048472236529612</v>
       </c>
       <c r="J18">
-        <v>1.022445266648715</v>
+        <v>1.022742643966471</v>
       </c>
       <c r="K18">
-        <v>1.031936879453218</v>
+        <v>1.031863743861048</v>
       </c>
       <c r="L18">
-        <v>1.02778253379933</v>
+        <v>1.028030403896713</v>
       </c>
       <c r="M18">
-        <v>1.040913059421388</v>
+        <v>1.041056655791868</v>
       </c>
       <c r="N18">
-        <v>1.0111666675826</v>
+        <v>1.013150213812044</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.041845079566159</v>
+        <v>1.041958615525603</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.033720965649888</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.033684795553903</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020833809681864</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9951174153092666</v>
+        <v>0.9954557467693687</v>
       </c>
       <c r="D19">
-        <v>1.018352134065189</v>
+        <v>1.018300328631444</v>
       </c>
       <c r="E19">
-        <v>1.013882737277754</v>
+        <v>1.01416410335331</v>
       </c>
       <c r="F19">
-        <v>1.026901043620994</v>
+        <v>1.027064872317219</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.048381441812517</v>
+        <v>1.048361386153068</v>
       </c>
       <c r="J19">
-        <v>1.022230444153495</v>
+        <v>1.022555898280203</v>
       </c>
       <c r="K19">
-        <v>1.031798544067506</v>
+        <v>1.031747587377261</v>
       </c>
       <c r="L19">
-        <v>1.027402781403954</v>
+        <v>1.027679487281986</v>
       </c>
       <c r="M19">
-        <v>1.04020889885064</v>
+        <v>1.040370101212208</v>
       </c>
       <c r="N19">
-        <v>1.011008824417218</v>
+        <v>1.013033747908421</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.040963060235962</v>
+        <v>1.0410905581224</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.033629575209648</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.033609710617995</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020775523544648</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9926139183600632</v>
+        <v>0.9931842400048964</v>
       </c>
       <c r="D20">
-        <v>1.016649838875598</v>
+        <v>1.016818520365497</v>
       </c>
       <c r="E20">
-        <v>1.01149448894176</v>
+        <v>1.011971558556081</v>
       </c>
       <c r="F20">
-        <v>1.024099212100811</v>
+        <v>1.024396096567951</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.047554450713674</v>
+        <v>1.047645136870158</v>
       </c>
       <c r="J20">
-        <v>1.02043256046226</v>
+        <v>1.020980449836992</v>
       </c>
       <c r="K20">
-        <v>1.030406105428074</v>
+        <v>1.030571945452057</v>
       </c>
       <c r="L20">
-        <v>1.025338188606455</v>
+        <v>1.025807118961247</v>
       </c>
       <c r="M20">
-        <v>1.037731141018605</v>
+        <v>1.038023118403571</v>
       </c>
       <c r="N20">
-        <v>1.010252267118915</v>
+        <v>1.012581684156563</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.038474942834928</v>
+        <v>1.038706012514222</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.032649001886058</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.03278281653112</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020461249766426</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9869279036938871</v>
+        <v>0.9880413052794553</v>
       </c>
       <c r="D21">
-        <v>1.012889866240704</v>
+        <v>1.013568412902114</v>
       </c>
       <c r="E21">
-        <v>1.007084319339938</v>
+        <v>1.008001667304233</v>
       </c>
       <c r="F21">
-        <v>1.020011350592372</v>
+        <v>1.020614928894159</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.04604781348469</v>
+        <v>1.046397754782616</v>
       </c>
       <c r="J21">
-        <v>1.016982516578457</v>
+        <v>1.018047665401072</v>
       </c>
       <c r="K21">
-        <v>1.027631083001373</v>
+        <v>1.028297207767115</v>
       </c>
       <c r="L21">
-        <v>1.021932708706037</v>
+        <v>1.022833014976959</v>
       </c>
       <c r="M21">
-        <v>1.034623267200067</v>
+        <v>1.035215994498229</v>
       </c>
       <c r="N21">
-        <v>1.009040119699764</v>
+        <v>1.012206677244738</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.0359743696024</v>
+        <v>1.03644347633238</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.03069019581585</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.031178072414902</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019965164560066</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9832981238960159</v>
+        <v>0.9847591602982828</v>
       </c>
       <c r="D22">
-        <v>1.010491277942838</v>
+        <v>1.011495960666161</v>
       </c>
       <c r="E22">
-        <v>1.004300891183199</v>
+        <v>1.005500373844165</v>
       </c>
       <c r="F22">
-        <v>1.017468514216856</v>
+        <v>1.018269032526205</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.045078860912569</v>
+        <v>1.045594426475414</v>
       </c>
       <c r="J22">
-        <v>1.014789294336568</v>
+        <v>1.016183176536223</v>
       </c>
       <c r="K22">
-        <v>1.025857726725847</v>
+        <v>1.026843069292407</v>
       </c>
       <c r="L22">
-        <v>1.019787625368177</v>
+        <v>1.020963649122839</v>
       </c>
       <c r="M22">
-        <v>1.032701681635107</v>
+        <v>1.033487060829104</v>
       </c>
       <c r="N22">
-        <v>1.008272214510135</v>
+        <v>1.011964281624804</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.034453552204197</v>
+        <v>1.035075132176445</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.029422765383589</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.030135058396693</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019647103625588</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.985217932569688</v>
+        <v>0.9864780496700981</v>
       </c>
       <c r="D23">
-        <v>1.011754066872337</v>
+        <v>1.012573859432603</v>
       </c>
       <c r="E23">
-        <v>1.005770671735326</v>
+        <v>1.006806555728654</v>
       </c>
       <c r="F23">
-        <v>1.018813829055712</v>
+        <v>1.019500232495411</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.045589117030939</v>
+        <v>1.0460106549716</v>
       </c>
       <c r="J23">
-        <v>1.015944979001798</v>
+        <v>1.017148940833229</v>
       </c>
       <c r="K23">
-        <v>1.026788711224556</v>
+        <v>1.027593134003276</v>
       </c>
       <c r="L23">
-        <v>1.020918487718514</v>
+        <v>1.021934652793217</v>
       </c>
       <c r="M23">
-        <v>1.033717170701864</v>
+        <v>1.034390934275395</v>
       </c>
       <c r="N23">
-        <v>1.008673346936602</v>
+        <v>1.012042535044682</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.035257250073169</v>
+        <v>1.035790492482059</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.030071323803785</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.030654754171314</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019807842989311</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9926202537745544</v>
+        <v>0.9931941670825027</v>
       </c>
       <c r="D24">
-        <v>1.016641184403813</v>
+        <v>1.016811994346802</v>
       </c>
       <c r="E24">
-        <v>1.011459516830007</v>
+        <v>1.011940618321381</v>
       </c>
       <c r="F24">
-        <v>1.024022775192181</v>
+        <v>1.024322125565059</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.047535818711678</v>
+        <v>1.047627511395378</v>
       </c>
       <c r="J24">
-        <v>1.020405370584204</v>
+        <v>1.020956742642714</v>
       </c>
       <c r="K24">
-        <v>1.030382231457649</v>
+        <v>1.030550167717257</v>
       </c>
       <c r="L24">
-        <v>1.025288335368871</v>
+        <v>1.025761238670745</v>
       </c>
       <c r="M24">
-        <v>1.037640760722421</v>
+        <v>1.037935168656232</v>
       </c>
       <c r="N24">
-        <v>1.01022716854727</v>
+        <v>1.012560941254846</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.038362524516641</v>
+        <v>1.038595529312486</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.032604597607641</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.032737227155636</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020448869730864</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.000870746392925</v>
+        <v>1.000920778491543</v>
       </c>
       <c r="D25">
-        <v>1.022104110449748</v>
+        <v>1.021720613672138</v>
       </c>
       <c r="E25">
-        <v>1.0178365901721</v>
+        <v>1.017901610813295</v>
       </c>
       <c r="F25">
-        <v>1.029874719570473</v>
+        <v>1.029882323772323</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.049649523296944</v>
+        <v>1.049460807468972</v>
       </c>
       <c r="J25">
-        <v>1.025368841940637</v>
+        <v>1.025417194452718</v>
       </c>
       <c r="K25">
-        <v>1.03436871234231</v>
+        <v>1.033990849056879</v>
       </c>
       <c r="L25">
-        <v>1.030164185154934</v>
+        <v>1.030228240986474</v>
       </c>
       <c r="M25">
-        <v>1.04202631776298</v>
+        <v>1.04203381243915</v>
       </c>
       <c r="N25">
-        <v>1.011955377852984</v>
+        <v>1.013735996969921</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.041833400817347</v>
+        <v>1.041839332340061</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.035420386815904</v>
+        <v>1.035166783688464</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021205145173819</v>
       </c>
     </row>
   </sheetData>
